--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(バッチ)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(バッチ)_(取引ID)_(取引名).xlsx
@@ -194,7 +194,7 @@
           </rPr>
           <t>以下を記述する。
 必須：○
-省略可：×
+省略可：-
 省略したときの動作は、説明欄に記述する。</t>
         </r>
       </text>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>PJ名</t>
   </si>
@@ -1038,23 +1038,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>メッセージID</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>埋め込み文字列</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -1771,7 +1754,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2116,87 +2099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2272,9 +2174,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2311,6 +2249,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2338,18 +2330,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2371,24 +2456,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2425,95 +2498,224 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2522,252 +2724,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6397,55 +6353,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="174" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="183" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="168" t="s">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="175" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="138" t="str">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="196" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="198"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -6453,51 +6409,51 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="168" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="138" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="196" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="198"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -6505,43 +6461,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="196"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="198"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -6680,52 +6636,52 @@
       <c r="A7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="156" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="156" t="s">
+      <c r="E7" s="173"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="192" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="156" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="174" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="157"/>
-      <c r="AD7" s="157"/>
-      <c r="AE7" s="158"/>
-      <c r="AF7" s="156" t="s">
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="158"/>
+      <c r="AG7" s="173"/>
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="172"/>
       <c r="AJ7" s="39"/>
       <c r="AK7" s="39"/>
       <c r="AL7" s="39"/>
@@ -6734,40 +6690,40 @@
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="129"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="201"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="199"/>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="201"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="187"/>
+      <c r="R8" s="188"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="188"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="188"/>
+      <c r="AB8" s="188"/>
+      <c r="AC8" s="188"/>
+      <c r="AD8" s="188"/>
+      <c r="AE8" s="189"/>
+      <c r="AF8" s="184"/>
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185"/>
+      <c r="AI8" s="186"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39"/>
       <c r="AL8" s="39"/>
@@ -6776,40 +6732,40 @@
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="149"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
+      <c r="AI9" s="192"/>
       <c r="AJ9" s="39"/>
       <c r="AK9" s="39"/>
       <c r="AL9" s="39"/>
@@ -6818,40 +6774,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="130"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="147"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="149"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="192"/>
       <c r="AJ10" s="39"/>
       <c r="AK10" s="39"/>
       <c r="AL10" s="39"/>
@@ -6860,40 +6816,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="130"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="152"/>
-      <c r="AF11" s="147"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="149"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="192"/>
       <c r="AJ11" s="39"/>
       <c r="AK11" s="39"/>
       <c r="AL11" s="39"/>
@@ -6902,40 +6858,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="130"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="150"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="152"/>
-      <c r="AF12" s="147"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="149"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="191"/>
+      <c r="AI12" s="192"/>
       <c r="AJ12" s="39"/>
       <c r="AK12" s="39"/>
       <c r="AL12" s="39"/>
@@ -6944,40 +6900,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="130"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="149"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="191"/>
+      <c r="AI13" s="192"/>
       <c r="AJ13" s="39"/>
       <c r="AK13" s="39"/>
       <c r="AL13" s="39"/>
@@ -6986,40 +6942,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="130"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="148"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="149"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="191"/>
+      <c r="AI14" s="192"/>
       <c r="AJ14" s="39"/>
       <c r="AK14" s="39"/>
       <c r="AL14" s="39"/>
@@ -7028,40 +6984,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="130"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="152"/>
-      <c r="AF15" s="147"/>
-      <c r="AG15" s="148"/>
-      <c r="AH15" s="148"/>
-      <c r="AI15" s="149"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="192"/>
       <c r="AJ15" s="39"/>
       <c r="AK15" s="39"/>
       <c r="AL15" s="39"/>
@@ -7070,40 +7026,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="130"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="147"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="149"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="192"/>
       <c r="AJ16" s="39"/>
       <c r="AK16" s="39"/>
       <c r="AL16" s="39"/>
@@ -7112,40 +7068,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="130"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="152"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="148"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="149"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
       <c r="AJ17" s="39"/>
       <c r="AK17" s="39"/>
       <c r="AL17" s="39"/>
@@ -7154,40 +7110,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="130"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="152"/>
-      <c r="AF18" s="147"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="149"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="192"/>
       <c r="AJ18" s="39"/>
       <c r="AK18" s="39"/>
       <c r="AL18" s="39"/>
@@ -7196,40 +7152,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="130"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="152"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="148"/>
-      <c r="AH19" s="148"/>
-      <c r="AI19" s="149"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="195"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="192"/>
       <c r="AJ19" s="39"/>
       <c r="AK19" s="39"/>
       <c r="AL19" s="39"/>
@@ -7238,40 +7194,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="130"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="149"/>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="152"/>
-      <c r="AF20" s="147"/>
-      <c r="AG20" s="148"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="149"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="192"/>
       <c r="AJ20" s="39"/>
       <c r="AK20" s="39"/>
       <c r="AL20" s="39"/>
@@ -7280,40 +7236,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="130"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="149"/>
-      <c r="Q21" s="150"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="152"/>
-      <c r="AF21" s="147"/>
-      <c r="AG21" s="148"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="149"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="192"/>
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
       <c r="AL21" s="39"/>
@@ -7322,40 +7278,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="130"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="149"/>
-      <c r="Q22" s="150"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="152"/>
-      <c r="AF22" s="147"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="149"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="192"/>
       <c r="AJ22" s="39"/>
       <c r="AK22" s="39"/>
       <c r="AL22" s="39"/>
@@ -7364,40 +7320,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="130"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="152"/>
-      <c r="AF23" s="147"/>
-      <c r="AG23" s="148"/>
-      <c r="AH23" s="148"/>
-      <c r="AI23" s="149"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="191"/>
+      <c r="AI23" s="192"/>
       <c r="AJ23" s="39"/>
       <c r="AK23" s="39"/>
       <c r="AL23" s="39"/>
@@ -7406,40 +7362,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="130"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="149"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="152"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="148"/>
-      <c r="AH24" s="148"/>
-      <c r="AI24" s="149"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="191"/>
+      <c r="AI24" s="192"/>
       <c r="AJ24" s="39"/>
       <c r="AK24" s="39"/>
       <c r="AL24" s="39"/>
@@ -7448,40 +7404,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="130"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="152"/>
-      <c r="AF25" s="147"/>
-      <c r="AG25" s="148"/>
-      <c r="AH25" s="148"/>
-      <c r="AI25" s="149"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="191"/>
+      <c r="AI25" s="192"/>
       <c r="AJ25" s="39"/>
       <c r="AK25" s="39"/>
       <c r="AL25" s="39"/>
@@ -7490,40 +7446,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="130"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="149"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="152"/>
-      <c r="AF26" s="147"/>
-      <c r="AG26" s="148"/>
-      <c r="AH26" s="148"/>
-      <c r="AI26" s="149"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="191"/>
+      <c r="AI26" s="192"/>
       <c r="AJ26" s="39"/>
       <c r="AK26" s="39"/>
       <c r="AL26" s="39"/>
@@ -7532,40 +7488,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="130"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="152"/>
-      <c r="AF27" s="147"/>
-      <c r="AG27" s="148"/>
-      <c r="AH27" s="148"/>
-      <c r="AI27" s="149"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="192"/>
       <c r="AJ27" s="39"/>
       <c r="AK27" s="39"/>
       <c r="AL27" s="39"/>
@@ -7574,40 +7530,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="130"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="152"/>
-      <c r="AF28" s="147"/>
-      <c r="AG28" s="148"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="149"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="194"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="192"/>
       <c r="AJ28" s="39"/>
       <c r="AK28" s="39"/>
       <c r="AL28" s="39"/>
@@ -7616,40 +7572,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="130"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="151"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="152"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="148"/>
-      <c r="AH29" s="148"/>
-      <c r="AI29" s="149"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="192"/>
       <c r="AJ29" s="39"/>
       <c r="AK29" s="39"/>
       <c r="AL29" s="39"/>
@@ -7658,40 +7614,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="130"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="152"/>
-      <c r="AF30" s="147"/>
-      <c r="AG30" s="148"/>
-      <c r="AH30" s="148"/>
-      <c r="AI30" s="149"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="192"/>
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
       <c r="AL30" s="39"/>
@@ -7700,40 +7656,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="130"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="151"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="151"/>
-      <c r="W31" s="151"/>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="152"/>
-      <c r="AF31" s="147"/>
-      <c r="AG31" s="148"/>
-      <c r="AH31" s="148"/>
-      <c r="AI31" s="149"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="192"/>
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
       <c r="AL31" s="39"/>
@@ -7742,40 +7698,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="130"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
-      <c r="P32" s="149"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="151"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="151"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="151"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="152"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="148"/>
-      <c r="AH32" s="148"/>
-      <c r="AI32" s="149"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="195"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
       <c r="AJ32" s="39"/>
       <c r="AK32" s="39"/>
       <c r="AL32" s="39"/>
@@ -7784,40 +7740,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="130"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="149"/>
-      <c r="Q33" s="150"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="151"/>
-      <c r="V33" s="151"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="152"/>
-      <c r="AF33" s="147"/>
-      <c r="AG33" s="148"/>
-      <c r="AH33" s="148"/>
-      <c r="AI33" s="149"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="192"/>
       <c r="AJ33" s="39"/>
       <c r="AK33" s="39"/>
       <c r="AL33" s="39"/>
@@ -8204,6 +8160,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8228,161 +8339,6 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -8539,157 +8495,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="174" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="214" t="str">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="214" t="str">
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="53" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="214" t="str">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="4" spans="1:35" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="55"/>
@@ -9000,7 +8956,7 @@
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="18"/>
@@ -9113,7 +9069,7 @@
       <c r="A15" s="18"/>
       <c r="B15" s="64"/>
       <c r="C15" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
@@ -10199,14 +10155,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10216,6 +10164,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -10242,157 +10198,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="174" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="214" t="str">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="214" t="str">
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="214" t="str">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10408,82 +10364,82 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="223"/>
-      <c r="R8" s="223"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="223"/>
-      <c r="U8" s="223"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="223"/>
-      <c r="Z8" s="223"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="223"/>
-      <c r="AC8" s="223"/>
-      <c r="AD8" s="223"/>
-      <c r="AE8" s="223"/>
-      <c r="AF8" s="223"/>
-      <c r="AG8" s="223"/>
-      <c r="AH8" s="224"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="257"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="257"/>
+      <c r="V8" s="257"/>
+      <c r="W8" s="257"/>
+      <c r="X8" s="257"/>
+      <c r="Y8" s="257"/>
+      <c r="Z8" s="257"/>
+      <c r="AA8" s="257"/>
+      <c r="AB8" s="257"/>
+      <c r="AC8" s="257"/>
+      <c r="AD8" s="257"/>
+      <c r="AE8" s="257"/>
+      <c r="AF8" s="257"/>
+      <c r="AG8" s="257"/>
+      <c r="AH8" s="258"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="231" t="s">
+      <c r="D9" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="223"/>
-      <c r="O9" s="223"/>
-      <c r="P9" s="223"/>
-      <c r="Q9" s="223"/>
-      <c r="R9" s="223"/>
-      <c r="S9" s="223"/>
-      <c r="T9" s="223"/>
-      <c r="U9" s="223"/>
-      <c r="V9" s="223"/>
-      <c r="W9" s="223"/>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="223"/>
-      <c r="AA9" s="223"/>
-      <c r="AB9" s="223"/>
-      <c r="AC9" s="223"/>
-      <c r="AD9" s="223"/>
-      <c r="AE9" s="223"/>
-      <c r="AF9" s="223"/>
-      <c r="AG9" s="223"/>
-      <c r="AH9" s="224"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="257"/>
+      <c r="W9" s="257"/>
+      <c r="X9" s="257"/>
+      <c r="Y9" s="257"/>
+      <c r="Z9" s="257"/>
+      <c r="AA9" s="257"/>
+      <c r="AB9" s="257"/>
+      <c r="AC9" s="257"/>
+      <c r="AD9" s="257"/>
+      <c r="AE9" s="257"/>
+      <c r="AF9" s="257"/>
+      <c r="AG9" s="257"/>
+      <c r="AH9" s="258"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="225" t="s">
+      <c r="D10" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="227"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="244"/>
       <c r="H10" s="107"/>
       <c r="I10" s="108"/>
       <c r="J10" s="108"/>
@@ -10513,10 +10469,10 @@
       <c r="AH10" s="109"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="266"/>
       <c r="H11" s="110"/>
       <c r="I11" s="111"/>
       <c r="J11" s="111"/>
@@ -10546,10 +10502,10 @@
       <c r="AH11" s="112"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="234"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="236"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
+      <c r="G12" s="266"/>
       <c r="H12" s="116"/>
       <c r="I12" s="117"/>
       <c r="J12" s="117"/>
@@ -10579,10 +10535,10 @@
       <c r="AH12" s="118"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="234"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="236"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="265"/>
+      <c r="G13" s="266"/>
       <c r="H13" s="116"/>
       <c r="I13" s="117"/>
       <c r="J13" s="117"/>
@@ -10612,10 +10568,10 @@
       <c r="AH13" s="118"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="234"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="236"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="266"/>
       <c r="H14" s="116"/>
       <c r="I14" s="117"/>
       <c r="J14" s="117"/>
@@ -10645,10 +10601,10 @@
       <c r="AH14" s="118"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="234"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="236"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="266"/>
       <c r="H15" s="116"/>
       <c r="I15" s="117"/>
       <c r="J15" s="117"/>
@@ -10678,10 +10634,10 @@
       <c r="AH15" s="118"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="234"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="236"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="265"/>
+      <c r="G16" s="266"/>
       <c r="H16" s="116"/>
       <c r="I16" s="117"/>
       <c r="J16" s="117"/>
@@ -10711,10 +10667,10 @@
       <c r="AH16" s="118"/>
     </row>
     <row r="17" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="234"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="236"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="265"/>
+      <c r="F17" s="265"/>
+      <c r="G17" s="266"/>
       <c r="H17" s="116"/>
       <c r="I17" s="117"/>
       <c r="J17" s="117"/>
@@ -10744,10 +10700,10 @@
       <c r="AH17" s="118"/>
     </row>
     <row r="18" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="234"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="236"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="266"/>
       <c r="H18" s="116"/>
       <c r="I18" s="117"/>
       <c r="J18" s="117"/>
@@ -10777,10 +10733,10 @@
       <c r="AH18" s="118"/>
     </row>
     <row r="19" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="234"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="236"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="265"/>
+      <c r="F19" s="265"/>
+      <c r="G19" s="266"/>
       <c r="H19" s="116"/>
       <c r="I19" s="117"/>
       <c r="J19" s="117"/>
@@ -10810,10 +10766,10 @@
       <c r="AH19" s="118"/>
     </row>
     <row r="20" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="234"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="236"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
+      <c r="G20" s="266"/>
       <c r="H20" s="116"/>
       <c r="I20" s="117"/>
       <c r="J20" s="117"/>
@@ -10843,10 +10799,10 @@
       <c r="AH20" s="118"/>
     </row>
     <row r="21" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="234"/>
-      <c r="E21" s="235"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="236"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="265"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="266"/>
       <c r="H21" s="116"/>
       <c r="I21" s="117"/>
       <c r="J21" s="117"/>
@@ -10876,10 +10832,10 @@
       <c r="AH21" s="118"/>
     </row>
     <row r="22" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="234"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="236"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="266"/>
       <c r="H22" s="116"/>
       <c r="I22" s="117"/>
       <c r="J22" s="117"/>
@@ -10909,10 +10865,10 @@
       <c r="AH22" s="118"/>
     </row>
     <row r="23" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="234"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="236"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="266"/>
       <c r="H23" s="116"/>
       <c r="I23" s="117"/>
       <c r="J23" s="117"/>
@@ -10942,10 +10898,10 @@
       <c r="AH23" s="118"/>
     </row>
     <row r="24" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="234"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="236"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="265"/>
+      <c r="F24" s="265"/>
+      <c r="G24" s="266"/>
       <c r="H24" s="110"/>
       <c r="I24" s="111"/>
       <c r="J24" s="111"/>
@@ -10975,10 +10931,10 @@
       <c r="AH24" s="112"/>
     </row>
     <row r="25" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="234"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="236"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="265"/>
+      <c r="G25" s="266"/>
       <c r="H25" s="110"/>
       <c r="I25" s="111"/>
       <c r="J25" s="111"/>
@@ -11008,10 +10964,10 @@
       <c r="AH25" s="112"/>
     </row>
     <row r="26" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="234"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="236"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="265"/>
+      <c r="F26" s="265"/>
+      <c r="G26" s="266"/>
       <c r="H26" s="110"/>
       <c r="I26" s="111"/>
       <c r="J26" s="111"/>
@@ -11041,10 +10997,10 @@
       <c r="AH26" s="112"/>
     </row>
     <row r="27" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="234"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="236"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="266"/>
       <c r="H27" s="110"/>
       <c r="I27" s="111"/>
       <c r="J27" s="111"/>
@@ -11074,10 +11030,10 @@
       <c r="AH27" s="112"/>
     </row>
     <row r="28" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="234"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="236"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="266"/>
       <c r="H28" s="110"/>
       <c r="I28" s="111"/>
       <c r="J28" s="111"/>
@@ -11107,10 +11063,10 @@
       <c r="AH28" s="112"/>
     </row>
     <row r="29" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="228"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="230"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="246"/>
       <c r="H29" s="113"/>
       <c r="I29" s="114"/>
       <c r="J29" s="114"/>
@@ -11140,12 +11096,12 @@
       <c r="AH29" s="115"/>
     </row>
     <row r="30" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="225" t="s">
+      <c r="D30" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="227"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="259"/>
+      <c r="G30" s="244"/>
       <c r="H30" s="107"/>
       <c r="I30" s="108"/>
       <c r="J30" s="108"/>
@@ -11175,10 +11131,10 @@
       <c r="AH30" s="109"/>
     </row>
     <row r="31" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="234"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="236"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="265"/>
+      <c r="F31" s="265"/>
+      <c r="G31" s="266"/>
       <c r="H31" s="110"/>
       <c r="I31" s="111"/>
       <c r="J31" s="111"/>
@@ -11208,10 +11164,10 @@
       <c r="AH31" s="112"/>
     </row>
     <row r="32" spans="4:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="234"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="236"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="266"/>
       <c r="H32" s="110"/>
       <c r="I32" s="111"/>
       <c r="J32" s="111"/>
@@ -11241,10 +11197,10 @@
       <c r="AH32" s="112"/>
     </row>
     <row r="33" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="228"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="230"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="260"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="246"/>
       <c r="H33" s="113"/>
       <c r="I33" s="114"/>
       <c r="J33" s="114"/>
@@ -11274,12 +11230,12 @@
       <c r="AH33" s="115"/>
     </row>
     <row r="34" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="226"/>
-      <c r="F34" s="226"/>
-      <c r="G34" s="227"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="259"/>
+      <c r="G34" s="244"/>
       <c r="H34" s="107"/>
       <c r="I34" s="108"/>
       <c r="J34" s="108"/>
@@ -11309,10 +11265,10 @@
       <c r="AH34" s="109"/>
     </row>
     <row r="35" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="234"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="236"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="265"/>
+      <c r="F35" s="265"/>
+      <c r="G35" s="266"/>
       <c r="H35" s="110"/>
       <c r="I35" s="111"/>
       <c r="J35" s="111"/>
@@ -11342,10 +11298,10 @@
       <c r="AH35" s="112"/>
     </row>
     <row r="36" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="234"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="235"/>
-      <c r="G36" s="236"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="266"/>
       <c r="H36" s="110"/>
       <c r="I36" s="111"/>
       <c r="J36" s="111"/>
@@ -11375,10 +11331,10 @@
       <c r="AH36" s="112"/>
     </row>
     <row r="37" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="234"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="235"/>
-      <c r="G37" s="236"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="265"/>
+      <c r="F37" s="265"/>
+      <c r="G37" s="266"/>
       <c r="H37" s="110"/>
       <c r="I37" s="111"/>
       <c r="J37" s="111"/>
@@ -11408,10 +11364,10 @@
       <c r="AH37" s="112"/>
     </row>
     <row r="38" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="234"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="236"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="265"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="266"/>
       <c r="H38" s="110"/>
       <c r="I38" s="111"/>
       <c r="J38" s="111"/>
@@ -11441,10 +11397,10 @@
       <c r="AH38" s="112"/>
     </row>
     <row r="39" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="234"/>
-      <c r="E39" s="235"/>
-      <c r="F39" s="235"/>
-      <c r="G39" s="236"/>
+      <c r="D39" s="264"/>
+      <c r="E39" s="265"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="266"/>
       <c r="H39" s="110"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
@@ -11474,10 +11430,10 @@
       <c r="AH39" s="112"/>
     </row>
     <row r="40" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="234"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="235"/>
-      <c r="G40" s="236"/>
+      <c r="D40" s="264"/>
+      <c r="E40" s="265"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="266"/>
       <c r="H40" s="110"/>
       <c r="I40" s="111"/>
       <c r="J40" s="111"/>
@@ -11507,10 +11463,10 @@
       <c r="AH40" s="112"/>
     </row>
     <row r="41" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="228"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="230"/>
+      <c r="D41" s="245"/>
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="246"/>
       <c r="H41" s="113"/>
       <c r="I41" s="114"/>
       <c r="J41" s="114"/>
@@ -11547,111 +11503,111 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D46" s="221" t="s">
+      <c r="D46" s="255" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="237" t="s">
+      <c r="E46" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="238"/>
-      <c r="G46" s="238"/>
-      <c r="H46" s="239"/>
-      <c r="I46" s="225" t="s">
+      <c r="F46" s="268"/>
+      <c r="G46" s="268"/>
+      <c r="H46" s="269"/>
+      <c r="I46" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="226"/>
-      <c r="K46" s="226"/>
-      <c r="L46" s="226"/>
-      <c r="M46" s="226"/>
-      <c r="N46" s="226"/>
-      <c r="O46" s="226"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="225" t="s">
+      <c r="J46" s="259"/>
+      <c r="K46" s="259"/>
+      <c r="L46" s="259"/>
+      <c r="M46" s="259"/>
+      <c r="N46" s="259"/>
+      <c r="O46" s="259"/>
+      <c r="P46" s="244"/>
+      <c r="Q46" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="R46" s="227"/>
-      <c r="S46" s="258" t="s">
+      <c r="R46" s="244"/>
+      <c r="S46" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="T46" s="259"/>
-      <c r="U46" s="259"/>
-      <c r="V46" s="260"/>
-      <c r="W46" s="237" t="s">
+      <c r="T46" s="250"/>
+      <c r="U46" s="250"/>
+      <c r="V46" s="251"/>
+      <c r="W46" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="X46" s="238"/>
-      <c r="Y46" s="238"/>
-      <c r="Z46" s="238"/>
-      <c r="AA46" s="238"/>
-      <c r="AB46" s="238"/>
-      <c r="AC46" s="238"/>
-      <c r="AD46" s="238"/>
-      <c r="AE46" s="238"/>
-      <c r="AF46" s="238"/>
-      <c r="AG46" s="238"/>
-      <c r="AH46" s="239"/>
+      <c r="X46" s="268"/>
+      <c r="Y46" s="268"/>
+      <c r="Z46" s="268"/>
+      <c r="AA46" s="268"/>
+      <c r="AB46" s="268"/>
+      <c r="AC46" s="268"/>
+      <c r="AD46" s="268"/>
+      <c r="AE46" s="268"/>
+      <c r="AF46" s="268"/>
+      <c r="AG46" s="268"/>
+      <c r="AH46" s="269"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D47" s="222"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="241"/>
-      <c r="G47" s="241"/>
-      <c r="H47" s="242"/>
-      <c r="I47" s="228"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="229"/>
-      <c r="L47" s="229"/>
-      <c r="M47" s="229"/>
-      <c r="N47" s="229"/>
-      <c r="O47" s="229"/>
-      <c r="P47" s="230"/>
-      <c r="Q47" s="228"/>
-      <c r="R47" s="230"/>
-      <c r="S47" s="256" t="s">
+      <c r="D47" s="256"/>
+      <c r="E47" s="270"/>
+      <c r="F47" s="271"/>
+      <c r="G47" s="271"/>
+      <c r="H47" s="272"/>
+      <c r="I47" s="245"/>
+      <c r="J47" s="260"/>
+      <c r="K47" s="260"/>
+      <c r="L47" s="260"/>
+      <c r="M47" s="260"/>
+      <c r="N47" s="260"/>
+      <c r="O47" s="260"/>
+      <c r="P47" s="246"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="246"/>
+      <c r="S47" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="T47" s="257"/>
-      <c r="U47" s="256" t="s">
+      <c r="T47" s="248"/>
+      <c r="U47" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="V47" s="257"/>
-      <c r="W47" s="240"/>
-      <c r="X47" s="241"/>
-      <c r="Y47" s="241"/>
-      <c r="Z47" s="241"/>
-      <c r="AA47" s="241"/>
-      <c r="AB47" s="241"/>
-      <c r="AC47" s="241"/>
-      <c r="AD47" s="241"/>
-      <c r="AE47" s="241"/>
-      <c r="AF47" s="241"/>
-      <c r="AG47" s="241"/>
-      <c r="AH47" s="242"/>
+      <c r="V47" s="248"/>
+      <c r="W47" s="270"/>
+      <c r="X47" s="271"/>
+      <c r="Y47" s="271"/>
+      <c r="Z47" s="271"/>
+      <c r="AA47" s="271"/>
+      <c r="AB47" s="271"/>
+      <c r="AC47" s="271"/>
+      <c r="AD47" s="271"/>
+      <c r="AE47" s="271"/>
+      <c r="AF47" s="271"/>
+      <c r="AG47" s="271"/>
+      <c r="AH47" s="272"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
-      <c r="D48" s="270">
+      <c r="D48" s="218">
         <v>1</v>
       </c>
-      <c r="E48" s="243"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="245"/>
-      <c r="I48" s="261"/>
-      <c r="J48" s="262"/>
-      <c r="K48" s="262"/>
-      <c r="L48" s="262"/>
-      <c r="M48" s="262"/>
-      <c r="N48" s="262"/>
-      <c r="O48" s="262"/>
-      <c r="P48" s="263"/>
-      <c r="Q48" s="156"/>
-      <c r="R48" s="158"/>
-      <c r="S48" s="156"/>
-      <c r="T48" s="158"/>
-      <c r="U48" s="156"/>
-      <c r="V48" s="158"/>
+      <c r="E48" s="234"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="236"/>
+      <c r="I48" s="221"/>
+      <c r="J48" s="222"/>
+      <c r="K48" s="222"/>
+      <c r="L48" s="222"/>
+      <c r="M48" s="222"/>
+      <c r="N48" s="222"/>
+      <c r="O48" s="222"/>
+      <c r="P48" s="223"/>
+      <c r="Q48" s="171"/>
+      <c r="R48" s="172"/>
+      <c r="S48" s="171"/>
+      <c r="T48" s="172"/>
+      <c r="U48" s="171"/>
+      <c r="V48" s="172"/>
       <c r="W48" s="217"/>
       <c r="X48" s="217"/>
       <c r="Y48" s="217"/>
@@ -11668,25 +11624,25 @@
     <row r="49" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
-      <c r="D49" s="271"/>
-      <c r="E49" s="246"/>
-      <c r="F49" s="247"/>
-      <c r="G49" s="247"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="264"/>
-      <c r="J49" s="265"/>
-      <c r="K49" s="265"/>
-      <c r="L49" s="265"/>
-      <c r="M49" s="265"/>
-      <c r="N49" s="265"/>
-      <c r="O49" s="265"/>
-      <c r="P49" s="266"/>
-      <c r="Q49" s="252"/>
-      <c r="R49" s="253"/>
-      <c r="S49" s="252"/>
-      <c r="T49" s="253"/>
-      <c r="U49" s="252"/>
-      <c r="V49" s="253"/>
+      <c r="D49" s="219"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="238"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="239"/>
+      <c r="I49" s="224"/>
+      <c r="J49" s="225"/>
+      <c r="K49" s="225"/>
+      <c r="L49" s="225"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="225"/>
+      <c r="O49" s="225"/>
+      <c r="P49" s="226"/>
+      <c r="Q49" s="230"/>
+      <c r="R49" s="231"/>
+      <c r="S49" s="230"/>
+      <c r="T49" s="231"/>
+      <c r="U49" s="230"/>
+      <c r="V49" s="231"/>
       <c r="W49" s="217"/>
       <c r="X49" s="217"/>
       <c r="Y49" s="217"/>
@@ -11703,25 +11659,25 @@
     <row r="50" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
-      <c r="D50" s="272"/>
-      <c r="E50" s="249"/>
-      <c r="F50" s="250"/>
-      <c r="G50" s="250"/>
-      <c r="H50" s="251"/>
-      <c r="I50" s="267"/>
-      <c r="J50" s="268"/>
-      <c r="K50" s="268"/>
-      <c r="L50" s="268"/>
-      <c r="M50" s="268"/>
-      <c r="N50" s="268"/>
-      <c r="O50" s="268"/>
-      <c r="P50" s="269"/>
-      <c r="Q50" s="254"/>
-      <c r="R50" s="255"/>
-      <c r="S50" s="254"/>
-      <c r="T50" s="255"/>
-      <c r="U50" s="254"/>
-      <c r="V50" s="255"/>
+      <c r="D50" s="220"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="241"/>
+      <c r="G50" s="241"/>
+      <c r="H50" s="242"/>
+      <c r="I50" s="227"/>
+      <c r="J50" s="228"/>
+      <c r="K50" s="228"/>
+      <c r="L50" s="228"/>
+      <c r="M50" s="228"/>
+      <c r="N50" s="228"/>
+      <c r="O50" s="228"/>
+      <c r="P50" s="229"/>
+      <c r="Q50" s="232"/>
+      <c r="R50" s="233"/>
+      <c r="S50" s="232"/>
+      <c r="T50" s="233"/>
+      <c r="U50" s="232"/>
+      <c r="V50" s="233"/>
       <c r="W50" s="217"/>
       <c r="X50" s="217"/>
       <c r="Y50" s="217"/>
@@ -11736,27 +11692,27 @@
       <c r="AH50" s="217"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D51" s="270">
+      <c r="D51" s="218">
         <v>2</v>
       </c>
-      <c r="E51" s="243"/>
-      <c r="F51" s="244"/>
-      <c r="G51" s="244"/>
-      <c r="H51" s="245"/>
-      <c r="I51" s="261"/>
-      <c r="J51" s="262"/>
-      <c r="K51" s="262"/>
-      <c r="L51" s="262"/>
-      <c r="M51" s="262"/>
-      <c r="N51" s="262"/>
-      <c r="O51" s="262"/>
-      <c r="P51" s="263"/>
-      <c r="Q51" s="156"/>
-      <c r="R51" s="158"/>
-      <c r="S51" s="156"/>
-      <c r="T51" s="158"/>
-      <c r="U51" s="156"/>
-      <c r="V51" s="158"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="235"/>
+      <c r="G51" s="235"/>
+      <c r="H51" s="236"/>
+      <c r="I51" s="221"/>
+      <c r="J51" s="222"/>
+      <c r="K51" s="222"/>
+      <c r="L51" s="222"/>
+      <c r="M51" s="222"/>
+      <c r="N51" s="222"/>
+      <c r="O51" s="222"/>
+      <c r="P51" s="223"/>
+      <c r="Q51" s="171"/>
+      <c r="R51" s="172"/>
+      <c r="S51" s="171"/>
+      <c r="T51" s="172"/>
+      <c r="U51" s="171"/>
+      <c r="V51" s="172"/>
       <c r="W51" s="217"/>
       <c r="X51" s="217"/>
       <c r="Y51" s="217"/>
@@ -11771,25 +11727,25 @@
       <c r="AH51" s="217"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D52" s="271"/>
-      <c r="E52" s="246"/>
-      <c r="F52" s="247"/>
-      <c r="G52" s="247"/>
-      <c r="H52" s="248"/>
-      <c r="I52" s="264"/>
-      <c r="J52" s="265"/>
-      <c r="K52" s="265"/>
-      <c r="L52" s="265"/>
-      <c r="M52" s="265"/>
-      <c r="N52" s="265"/>
-      <c r="O52" s="265"/>
-      <c r="P52" s="266"/>
-      <c r="Q52" s="252"/>
-      <c r="R52" s="253"/>
-      <c r="S52" s="252"/>
-      <c r="T52" s="253"/>
-      <c r="U52" s="252"/>
-      <c r="V52" s="253"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="237"/>
+      <c r="F52" s="238"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="224"/>
+      <c r="J52" s="225"/>
+      <c r="K52" s="225"/>
+      <c r="L52" s="225"/>
+      <c r="M52" s="225"/>
+      <c r="N52" s="225"/>
+      <c r="O52" s="225"/>
+      <c r="P52" s="226"/>
+      <c r="Q52" s="230"/>
+      <c r="R52" s="231"/>
+      <c r="S52" s="230"/>
+      <c r="T52" s="231"/>
+      <c r="U52" s="230"/>
+      <c r="V52" s="231"/>
       <c r="W52" s="217"/>
       <c r="X52" s="217"/>
       <c r="Y52" s="217"/>
@@ -11804,25 +11760,25 @@
       <c r="AH52" s="217"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D53" s="272"/>
-      <c r="E53" s="249"/>
-      <c r="F53" s="250"/>
-      <c r="G53" s="250"/>
-      <c r="H53" s="251"/>
-      <c r="I53" s="267"/>
-      <c r="J53" s="268"/>
-      <c r="K53" s="268"/>
-      <c r="L53" s="268"/>
-      <c r="M53" s="268"/>
-      <c r="N53" s="268"/>
-      <c r="O53" s="268"/>
-      <c r="P53" s="269"/>
-      <c r="Q53" s="254"/>
-      <c r="R53" s="255"/>
-      <c r="S53" s="254"/>
-      <c r="T53" s="255"/>
-      <c r="U53" s="254"/>
-      <c r="V53" s="255"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="240"/>
+      <c r="F53" s="241"/>
+      <c r="G53" s="241"/>
+      <c r="H53" s="242"/>
+      <c r="I53" s="227"/>
+      <c r="J53" s="228"/>
+      <c r="K53" s="228"/>
+      <c r="L53" s="228"/>
+      <c r="M53" s="228"/>
+      <c r="N53" s="228"/>
+      <c r="O53" s="228"/>
+      <c r="P53" s="229"/>
+      <c r="Q53" s="232"/>
+      <c r="R53" s="233"/>
+      <c r="S53" s="232"/>
+      <c r="T53" s="233"/>
+      <c r="U53" s="232"/>
+      <c r="V53" s="233"/>
       <c r="W53" s="217"/>
       <c r="X53" s="217"/>
       <c r="Y53" s="217"/>
@@ -11837,27 +11793,27 @@
       <c r="AH53" s="217"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D54" s="270">
+      <c r="D54" s="218">
         <v>3</v>
       </c>
-      <c r="E54" s="243"/>
-      <c r="F54" s="244"/>
-      <c r="G54" s="244"/>
-      <c r="H54" s="245"/>
-      <c r="I54" s="261"/>
-      <c r="J54" s="262"/>
-      <c r="K54" s="262"/>
-      <c r="L54" s="262"/>
-      <c r="M54" s="262"/>
-      <c r="N54" s="262"/>
-      <c r="O54" s="262"/>
-      <c r="P54" s="263"/>
-      <c r="Q54" s="156"/>
-      <c r="R54" s="158"/>
-      <c r="S54" s="156"/>
-      <c r="T54" s="158"/>
-      <c r="U54" s="156"/>
-      <c r="V54" s="158"/>
+      <c r="E54" s="234"/>
+      <c r="F54" s="235"/>
+      <c r="G54" s="235"/>
+      <c r="H54" s="236"/>
+      <c r="I54" s="221"/>
+      <c r="J54" s="222"/>
+      <c r="K54" s="222"/>
+      <c r="L54" s="222"/>
+      <c r="M54" s="222"/>
+      <c r="N54" s="222"/>
+      <c r="O54" s="222"/>
+      <c r="P54" s="223"/>
+      <c r="Q54" s="171"/>
+      <c r="R54" s="172"/>
+      <c r="S54" s="171"/>
+      <c r="T54" s="172"/>
+      <c r="U54" s="171"/>
+      <c r="V54" s="172"/>
       <c r="W54" s="217"/>
       <c r="X54" s="217"/>
       <c r="Y54" s="217"/>
@@ -11872,25 +11828,25 @@
       <c r="AH54" s="217"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D55" s="271"/>
-      <c r="E55" s="246"/>
-      <c r="F55" s="247"/>
-      <c r="G55" s="247"/>
-      <c r="H55" s="248"/>
-      <c r="I55" s="264"/>
-      <c r="J55" s="265"/>
-      <c r="K55" s="265"/>
-      <c r="L55" s="265"/>
-      <c r="M55" s="265"/>
-      <c r="N55" s="265"/>
-      <c r="O55" s="265"/>
-      <c r="P55" s="266"/>
-      <c r="Q55" s="252"/>
-      <c r="R55" s="253"/>
-      <c r="S55" s="252"/>
-      <c r="T55" s="253"/>
-      <c r="U55" s="252"/>
-      <c r="V55" s="253"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="237"/>
+      <c r="F55" s="238"/>
+      <c r="G55" s="238"/>
+      <c r="H55" s="239"/>
+      <c r="I55" s="224"/>
+      <c r="J55" s="225"/>
+      <c r="K55" s="225"/>
+      <c r="L55" s="225"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="225"/>
+      <c r="O55" s="225"/>
+      <c r="P55" s="226"/>
+      <c r="Q55" s="230"/>
+      <c r="R55" s="231"/>
+      <c r="S55" s="230"/>
+      <c r="T55" s="231"/>
+      <c r="U55" s="230"/>
+      <c r="V55" s="231"/>
       <c r="W55" s="217"/>
       <c r="X55" s="217"/>
       <c r="Y55" s="217"/>
@@ -11905,25 +11861,25 @@
       <c r="AH55" s="217"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D56" s="272"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="250"/>
-      <c r="G56" s="250"/>
-      <c r="H56" s="251"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="268"/>
-      <c r="K56" s="268"/>
-      <c r="L56" s="268"/>
-      <c r="M56" s="268"/>
-      <c r="N56" s="268"/>
-      <c r="O56" s="268"/>
-      <c r="P56" s="269"/>
-      <c r="Q56" s="254"/>
-      <c r="R56" s="255"/>
-      <c r="S56" s="254"/>
-      <c r="T56" s="255"/>
-      <c r="U56" s="254"/>
-      <c r="V56" s="255"/>
+      <c r="D56" s="220"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="241"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="242"/>
+      <c r="I56" s="227"/>
+      <c r="J56" s="228"/>
+      <c r="K56" s="228"/>
+      <c r="L56" s="228"/>
+      <c r="M56" s="228"/>
+      <c r="N56" s="228"/>
+      <c r="O56" s="228"/>
+      <c r="P56" s="229"/>
+      <c r="Q56" s="232"/>
+      <c r="R56" s="233"/>
+      <c r="S56" s="232"/>
+      <c r="T56" s="233"/>
+      <c r="U56" s="232"/>
+      <c r="V56" s="233"/>
       <c r="W56" s="217"/>
       <c r="X56" s="217"/>
       <c r="Y56" s="217"/>
@@ -11938,27 +11894,27 @@
       <c r="AH56" s="217"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D57" s="270">
+      <c r="D57" s="218">
         <v>4</v>
       </c>
-      <c r="E57" s="243"/>
-      <c r="F57" s="244"/>
-      <c r="G57" s="244"/>
-      <c r="H57" s="245"/>
-      <c r="I57" s="261"/>
-      <c r="J57" s="262"/>
-      <c r="K57" s="262"/>
-      <c r="L57" s="262"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="262"/>
-      <c r="O57" s="262"/>
-      <c r="P57" s="263"/>
-      <c r="Q57" s="156"/>
-      <c r="R57" s="158"/>
-      <c r="S57" s="156"/>
-      <c r="T57" s="158"/>
-      <c r="U57" s="156"/>
-      <c r="V57" s="158"/>
+      <c r="E57" s="234"/>
+      <c r="F57" s="235"/>
+      <c r="G57" s="235"/>
+      <c r="H57" s="236"/>
+      <c r="I57" s="221"/>
+      <c r="J57" s="222"/>
+      <c r="K57" s="222"/>
+      <c r="L57" s="222"/>
+      <c r="M57" s="222"/>
+      <c r="N57" s="222"/>
+      <c r="O57" s="222"/>
+      <c r="P57" s="223"/>
+      <c r="Q57" s="171"/>
+      <c r="R57" s="172"/>
+      <c r="S57" s="171"/>
+      <c r="T57" s="172"/>
+      <c r="U57" s="171"/>
+      <c r="V57" s="172"/>
       <c r="W57" s="217"/>
       <c r="X57" s="217"/>
       <c r="Y57" s="217"/>
@@ -11973,25 +11929,25 @@
       <c r="AH57" s="217"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D58" s="271"/>
-      <c r="E58" s="246"/>
-      <c r="F58" s="247"/>
-      <c r="G58" s="247"/>
-      <c r="H58" s="248"/>
-      <c r="I58" s="264"/>
-      <c r="J58" s="265"/>
-      <c r="K58" s="265"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="265"/>
-      <c r="O58" s="265"/>
-      <c r="P58" s="266"/>
-      <c r="Q58" s="252"/>
-      <c r="R58" s="253"/>
-      <c r="S58" s="252"/>
-      <c r="T58" s="253"/>
-      <c r="U58" s="252"/>
-      <c r="V58" s="253"/>
+      <c r="D58" s="219"/>
+      <c r="E58" s="237"/>
+      <c r="F58" s="238"/>
+      <c r="G58" s="238"/>
+      <c r="H58" s="239"/>
+      <c r="I58" s="224"/>
+      <c r="J58" s="225"/>
+      <c r="K58" s="225"/>
+      <c r="L58" s="225"/>
+      <c r="M58" s="225"/>
+      <c r="N58" s="225"/>
+      <c r="O58" s="225"/>
+      <c r="P58" s="226"/>
+      <c r="Q58" s="230"/>
+      <c r="R58" s="231"/>
+      <c r="S58" s="230"/>
+      <c r="T58" s="231"/>
+      <c r="U58" s="230"/>
+      <c r="V58" s="231"/>
       <c r="W58" s="217"/>
       <c r="X58" s="217"/>
       <c r="Y58" s="217"/>
@@ -12006,25 +11962,25 @@
       <c r="AH58" s="217"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D59" s="272"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="250"/>
-      <c r="G59" s="250"/>
-      <c r="H59" s="251"/>
-      <c r="I59" s="267"/>
-      <c r="J59" s="268"/>
-      <c r="K59" s="268"/>
-      <c r="L59" s="268"/>
-      <c r="M59" s="268"/>
-      <c r="N59" s="268"/>
-      <c r="O59" s="268"/>
-      <c r="P59" s="269"/>
-      <c r="Q59" s="254"/>
-      <c r="R59" s="255"/>
-      <c r="S59" s="254"/>
-      <c r="T59" s="255"/>
-      <c r="U59" s="254"/>
-      <c r="V59" s="255"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="240"/>
+      <c r="F59" s="241"/>
+      <c r="G59" s="241"/>
+      <c r="H59" s="242"/>
+      <c r="I59" s="227"/>
+      <c r="J59" s="228"/>
+      <c r="K59" s="228"/>
+      <c r="L59" s="228"/>
+      <c r="M59" s="228"/>
+      <c r="N59" s="228"/>
+      <c r="O59" s="228"/>
+      <c r="P59" s="229"/>
+      <c r="Q59" s="232"/>
+      <c r="R59" s="233"/>
+      <c r="S59" s="232"/>
+      <c r="T59" s="233"/>
+      <c r="U59" s="232"/>
+      <c r="V59" s="233"/>
       <c r="W59" s="217"/>
       <c r="X59" s="217"/>
       <c r="Y59" s="217"/>
@@ -12040,6 +11996,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="W51:AH53"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="I46:P47"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G29"/>
+    <mergeCell ref="D30:G33"/>
+    <mergeCell ref="D34:G41"/>
+    <mergeCell ref="E46:H47"/>
+    <mergeCell ref="W46:AH47"/>
+    <mergeCell ref="W48:AH50"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E57:H59"/>
+    <mergeCell ref="S51:T53"/>
+    <mergeCell ref="U51:V53"/>
+    <mergeCell ref="Q46:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="S48:T50"/>
+    <mergeCell ref="U48:V50"/>
+    <mergeCell ref="I54:P56"/>
+    <mergeCell ref="Q54:R56"/>
+    <mergeCell ref="S54:T56"/>
+    <mergeCell ref="U54:V56"/>
+    <mergeCell ref="E54:H56"/>
     <mergeCell ref="W54:AH56"/>
     <mergeCell ref="W57:AH59"/>
     <mergeCell ref="D48:D50"/>
@@ -12056,50 +12056,6 @@
     <mergeCell ref="S57:T59"/>
     <mergeCell ref="U57:V59"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E57:H59"/>
-    <mergeCell ref="S51:T53"/>
-    <mergeCell ref="U51:V53"/>
-    <mergeCell ref="Q46:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="S48:T50"/>
-    <mergeCell ref="U48:V50"/>
-    <mergeCell ref="I54:P56"/>
-    <mergeCell ref="Q54:R56"/>
-    <mergeCell ref="S54:T56"/>
-    <mergeCell ref="U54:V56"/>
-    <mergeCell ref="E54:H56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="W51:AH53"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="I46:P47"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="D30:G33"/>
-    <mergeCell ref="D34:G41"/>
-    <mergeCell ref="E46:H47"/>
-    <mergeCell ref="W46:AH47"/>
-    <mergeCell ref="W48:AH50"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -12137,157 +12093,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="174" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="214" t="str">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="214" t="str">
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="214" t="str">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12298,14 +12254,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -12315,6 +12263,14 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -12344,163 +12300,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="174" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="205" t="str">
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)</v>
       </c>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="206"/>
-      <c r="Z1" s="207"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="209"/>
+      <c r="U1" s="209"/>
+      <c r="V1" s="209"/>
+      <c r="W1" s="209"/>
+      <c r="X1" s="209"/>
+      <c r="Y1" s="209"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="214" t="str">
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="216"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:42" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="177"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="212"/>
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="214" t="str">
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="216"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:42" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="180"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="182"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="212"/>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="173"/>
-      <c r="AC3" s="144" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="214" t="str">
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="216"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12508,7 +12464,7 @@
     <row r="4" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12520,111 +12476,111 @@
       <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:42" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="274"/>
-      <c r="G8" s="274"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="152"/>
+      <c r="E8" s="347"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="194"/>
+      <c r="AG8" s="194"/>
+      <c r="AH8" s="195"/>
       <c r="AI8" s="49"/>
     </row>
     <row r="9" spans="1:42" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="273" t="s">
+      <c r="D9" s="346" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="274"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="151"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="152"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="347"/>
+      <c r="G9" s="347"/>
+      <c r="H9" s="348"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="194"/>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="195"/>
       <c r="AI9" s="49"/>
     </row>
     <row r="10" spans="1:42" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="273" t="s">
+      <c r="D10" s="346" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="274"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="152"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="347"/>
+      <c r="G10" s="347"/>
+      <c r="H10" s="348"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="195"/>
       <c r="AI10" s="49"/>
     </row>
     <row r="11" spans="1:42" s="46" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12673,179 +12629,179 @@
       <c r="D15" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="276" t="s">
+      <c r="E15" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="277"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="278"/>
+      <c r="F15" s="341"/>
+      <c r="G15" s="341"/>
+      <c r="H15" s="341"/>
+      <c r="I15" s="341"/>
+      <c r="J15" s="342"/>
       <c r="K15" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="279" t="s">
+      <c r="L15" s="343" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="280"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="280"/>
-      <c r="P15" s="281"/>
-      <c r="Q15" s="279" t="s">
+      <c r="M15" s="344"/>
+      <c r="N15" s="344"/>
+      <c r="O15" s="344"/>
+      <c r="P15" s="345"/>
+      <c r="Q15" s="343" t="s">
         <v>45</v>
       </c>
-      <c r="R15" s="280"/>
-      <c r="S15" s="280"/>
-      <c r="T15" s="280"/>
-      <c r="U15" s="280"/>
-      <c r="V15" s="280"/>
-      <c r="W15" s="280"/>
-      <c r="X15" s="280"/>
-      <c r="Y15" s="280"/>
-      <c r="Z15" s="280"/>
-      <c r="AA15" s="280"/>
-      <c r="AB15" s="280"/>
-      <c r="AC15" s="280"/>
-      <c r="AD15" s="280"/>
-      <c r="AE15" s="280"/>
-      <c r="AF15" s="280"/>
-      <c r="AG15" s="280"/>
-      <c r="AH15" s="281"/>
+      <c r="R15" s="344"/>
+      <c r="S15" s="344"/>
+      <c r="T15" s="344"/>
+      <c r="U15" s="344"/>
+      <c r="V15" s="344"/>
+      <c r="W15" s="344"/>
+      <c r="X15" s="344"/>
+      <c r="Y15" s="344"/>
+      <c r="Z15" s="344"/>
+      <c r="AA15" s="344"/>
+      <c r="AB15" s="344"/>
+      <c r="AC15" s="344"/>
+      <c r="AD15" s="344"/>
+      <c r="AE15" s="344"/>
+      <c r="AF15" s="344"/>
+      <c r="AG15" s="344"/>
+      <c r="AH15" s="345"/>
       <c r="AI15" s="50"/>
-      <c r="AK15" s="279" t="s">
+      <c r="AK15" s="343" t="s">
         <v>66</v>
       </c>
-      <c r="AL15" s="277"/>
-      <c r="AM15" s="277"/>
-      <c r="AN15" s="277"/>
-      <c r="AO15" s="277"/>
-      <c r="AP15" s="278"/>
+      <c r="AL15" s="341"/>
+      <c r="AM15" s="341"/>
+      <c r="AN15" s="341"/>
+      <c r="AO15" s="341"/>
+      <c r="AP15" s="342"/>
     </row>
     <row r="16" spans="1:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D16" s="128">
         <v>1</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="195"/>
       <c r="K16" s="122"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="152"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="194"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="195"/>
       <c r="AI16" s="51"/>
-      <c r="AK16" s="147"/>
-      <c r="AL16" s="148"/>
-      <c r="AM16" s="148"/>
-      <c r="AN16" s="148"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="149"/>
+      <c r="AK16" s="190"/>
+      <c r="AL16" s="191"/>
+      <c r="AM16" s="191"/>
+      <c r="AN16" s="191"/>
+      <c r="AO16" s="191"/>
+      <c r="AP16" s="192"/>
     </row>
     <row r="17" spans="3:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="128">
         <v>2</v>
       </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="195"/>
       <c r="K17" s="122"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="152"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="194"/>
+      <c r="AF17" s="194"/>
+      <c r="AG17" s="194"/>
+      <c r="AH17" s="195"/>
       <c r="AI17" s="51"/>
-      <c r="AK17" s="147"/>
-      <c r="AL17" s="148"/>
-      <c r="AM17" s="148"/>
-      <c r="AN17" s="148"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="149"/>
+      <c r="AK17" s="190"/>
+      <c r="AL17" s="191"/>
+      <c r="AM17" s="191"/>
+      <c r="AN17" s="191"/>
+      <c r="AO17" s="191"/>
+      <c r="AP17" s="192"/>
     </row>
     <row r="18" spans="3:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D18" s="128">
         <v>3</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="195"/>
       <c r="K18" s="122"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="152"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="195"/>
       <c r="AI18" s="51"/>
-      <c r="AK18" s="147"/>
-      <c r="AL18" s="148"/>
-      <c r="AM18" s="148"/>
-      <c r="AN18" s="148"/>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="149"/>
+      <c r="AK18" s="190"/>
+      <c r="AL18" s="191"/>
+      <c r="AM18" s="191"/>
+      <c r="AN18" s="191"/>
+      <c r="AO18" s="191"/>
+      <c r="AP18" s="192"/>
     </row>
     <row r="21" spans="3:42" x14ac:dyDescent="0.15">
       <c r="C21" s="40" t="s">
@@ -12856,151 +12812,147 @@
       <c r="D23" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="282" t="s">
+      <c r="E23" s="337" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="283"/>
-      <c r="G23" s="284"/>
-      <c r="H23" s="285" t="s">
+      <c r="F23" s="338"/>
+      <c r="G23" s="339"/>
+      <c r="H23" s="310" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="286"/>
-      <c r="J23" s="287"/>
-      <c r="K23" s="231" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="232"/>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="232"/>
-      <c r="R23" s="232"/>
-      <c r="S23" s="232"/>
-      <c r="T23" s="232"/>
-      <c r="U23" s="232"/>
-      <c r="V23" s="232"/>
-      <c r="W23" s="232"/>
-      <c r="X23" s="232"/>
-      <c r="Y23" s="233"/>
-      <c r="Z23" s="288" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA23" s="289"/>
-      <c r="AB23" s="289"/>
-      <c r="AC23" s="290"/>
-      <c r="AD23" s="288" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE23" s="289"/>
-      <c r="AF23" s="289"/>
-      <c r="AG23" s="289"/>
-      <c r="AH23" s="290"/>
+      <c r="I23" s="311"/>
+      <c r="J23" s="312"/>
+      <c r="K23" s="261" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="262"/>
+      <c r="M23" s="262"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="262"/>
+      <c r="P23" s="262"/>
+      <c r="Q23" s="262"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="262"/>
+      <c r="T23" s="262"/>
+      <c r="U23" s="262"/>
+      <c r="V23" s="262"/>
+      <c r="W23" s="262"/>
+      <c r="X23" s="262"/>
+      <c r="Y23" s="262"/>
+      <c r="Z23" s="262"/>
+      <c r="AA23" s="262"/>
+      <c r="AB23" s="262"/>
+      <c r="AC23" s="262"/>
+      <c r="AD23" s="262"/>
+      <c r="AE23" s="262"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="262"/>
+      <c r="AH23" s="263"/>
     </row>
     <row r="24" spans="3:42" x14ac:dyDescent="0.15">
       <c r="D24" s="45">
         <v>1</v>
       </c>
-      <c r="E24" s="150"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="291"/>
-      <c r="AA24" s="292"/>
-      <c r="AB24" s="292"/>
-      <c r="AC24" s="293"/>
-      <c r="AD24" s="294"/>
-      <c r="AE24" s="295"/>
-      <c r="AF24" s="295"/>
-      <c r="AG24" s="295"/>
-      <c r="AH24" s="296"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="194"/>
+      <c r="AF24" s="194"/>
+      <c r="AG24" s="194"/>
+      <c r="AH24" s="195"/>
     </row>
     <row r="25" spans="3:42" x14ac:dyDescent="0.15">
       <c r="D25" s="45">
         <v>2</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="152"/>
-      <c r="Z25" s="291"/>
-      <c r="AA25" s="292"/>
-      <c r="AB25" s="292"/>
-      <c r="AC25" s="293"/>
-      <c r="AD25" s="314"/>
-      <c r="AE25" s="315"/>
-      <c r="AF25" s="315"/>
-      <c r="AG25" s="315"/>
-      <c r="AH25" s="316"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="194"/>
+      <c r="AF25" s="194"/>
+      <c r="AG25" s="194"/>
+      <c r="AH25" s="195"/>
     </row>
     <row r="26" spans="3:42" x14ac:dyDescent="0.15">
       <c r="D26" s="45">
         <v>3</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="152"/>
-      <c r="Z26" s="291"/>
-      <c r="AA26" s="292"/>
-      <c r="AB26" s="292"/>
-      <c r="AC26" s="293"/>
-      <c r="AD26" s="314"/>
-      <c r="AE26" s="315"/>
-      <c r="AF26" s="315"/>
-      <c r="AG26" s="315"/>
-      <c r="AH26" s="316"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="194"/>
+      <c r="AF26" s="194"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="195"/>
     </row>
     <row r="29" spans="3:42" x14ac:dyDescent="0.15">
       <c r="C29" s="40" t="s">
@@ -13011,63 +12963,63 @@
       <c r="C30" s="40"/>
     </row>
     <row r="31" spans="3:42" x14ac:dyDescent="0.15">
-      <c r="D31" s="297" t="s">
+      <c r="D31" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="299" t="s">
+      <c r="E31" s="323" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="300"/>
-      <c r="G31" s="300"/>
-      <c r="H31" s="300"/>
-      <c r="I31" s="300"/>
-      <c r="J31" s="301"/>
-      <c r="K31" s="305" t="s">
+      <c r="F31" s="324"/>
+      <c r="G31" s="324"/>
+      <c r="H31" s="324"/>
+      <c r="I31" s="324"/>
+      <c r="J31" s="325"/>
+      <c r="K31" s="329" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="300"/>
-      <c r="M31" s="300"/>
-      <c r="N31" s="301"/>
-      <c r="O31" s="306" t="s">
+      <c r="L31" s="324"/>
+      <c r="M31" s="324"/>
+      <c r="N31" s="325"/>
+      <c r="O31" s="330" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="308" t="s">
+      <c r="P31" s="331" t="s">
         <v>70</v>
       </c>
-      <c r="Q31" s="309"/>
-      <c r="R31" s="309"/>
-      <c r="S31" s="309"/>
-      <c r="T31" s="309"/>
-      <c r="U31" s="310"/>
-      <c r="V31" s="311" t="s">
+      <c r="Q31" s="332"/>
+      <c r="R31" s="332"/>
+      <c r="S31" s="332"/>
+      <c r="T31" s="332"/>
+      <c r="U31" s="333"/>
+      <c r="V31" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="W31" s="311"/>
-      <c r="X31" s="311"/>
-      <c r="Y31" s="311"/>
-      <c r="Z31" s="311"/>
-      <c r="AA31" s="311"/>
-      <c r="AB31" s="311"/>
-      <c r="AC31" s="311"/>
-      <c r="AD31" s="311"/>
-      <c r="AE31" s="311"/>
-      <c r="AF31" s="311"/>
-      <c r="AG31" s="311"/>
-      <c r="AH31" s="311"/>
+      <c r="W31" s="334"/>
+      <c r="X31" s="334"/>
+      <c r="Y31" s="334"/>
+      <c r="Z31" s="334"/>
+      <c r="AA31" s="334"/>
+      <c r="AB31" s="334"/>
+      <c r="AC31" s="334"/>
+      <c r="AD31" s="334"/>
+      <c r="AE31" s="334"/>
+      <c r="AF31" s="334"/>
+      <c r="AG31" s="334"/>
+      <c r="AH31" s="334"/>
     </row>
     <row r="32" spans="3:42" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="298"/>
-      <c r="E32" s="302"/>
-      <c r="F32" s="303"/>
-      <c r="G32" s="303"/>
-      <c r="H32" s="303"/>
-      <c r="I32" s="303"/>
-      <c r="J32" s="304"/>
-      <c r="K32" s="302"/>
-      <c r="L32" s="303"/>
-      <c r="M32" s="303"/>
-      <c r="N32" s="304"/>
-      <c r="O32" s="307"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="326"/>
+      <c r="F32" s="327"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="328"/>
+      <c r="K32" s="326"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="316"/>
       <c r="P32" s="48" t="s">
         <v>71</v>
       </c>
@@ -13080,128 +13032,128 @@
       <c r="S32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="T32" s="312" t="s">
+      <c r="T32" s="335" t="s">
         <v>75</v>
       </c>
-      <c r="U32" s="313"/>
-      <c r="V32" s="311"/>
-      <c r="W32" s="311"/>
-      <c r="X32" s="311"/>
-      <c r="Y32" s="311"/>
-      <c r="Z32" s="311"/>
-      <c r="AA32" s="311"/>
-      <c r="AB32" s="311"/>
-      <c r="AC32" s="311"/>
-      <c r="AD32" s="311"/>
-      <c r="AE32" s="311"/>
-      <c r="AF32" s="311"/>
-      <c r="AG32" s="311"/>
-      <c r="AH32" s="311"/>
+      <c r="U32" s="336"/>
+      <c r="V32" s="334"/>
+      <c r="W32" s="334"/>
+      <c r="X32" s="334"/>
+      <c r="Y32" s="334"/>
+      <c r="Z32" s="334"/>
+      <c r="AA32" s="334"/>
+      <c r="AB32" s="334"/>
+      <c r="AC32" s="334"/>
+      <c r="AD32" s="334"/>
+      <c r="AE32" s="334"/>
+      <c r="AF32" s="334"/>
+      <c r="AG32" s="334"/>
+      <c r="AH32" s="334"/>
     </row>
     <row r="33" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D33" s="45">
         <v>1</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="152"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="195"/>
       <c r="O33" s="30"/>
       <c r="P33" s="54"/>
       <c r="Q33" s="54"/>
       <c r="R33" s="54"/>
       <c r="S33" s="54"/>
-      <c r="T33" s="317"/>
-      <c r="U33" s="318"/>
-      <c r="V33" s="150"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="152"/>
+      <c r="T33" s="318"/>
+      <c r="U33" s="319"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="194"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="195"/>
     </row>
     <row r="34" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="45">
         <v>2</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="152"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="195"/>
       <c r="O34" s="30"/>
       <c r="P34" s="54"/>
       <c r="Q34" s="54"/>
       <c r="R34" s="54"/>
       <c r="S34" s="54"/>
-      <c r="T34" s="317"/>
-      <c r="U34" s="318"/>
-      <c r="V34" s="150"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="152"/>
+      <c r="T34" s="318"/>
+      <c r="U34" s="319"/>
+      <c r="V34" s="193"/>
+      <c r="W34" s="194"/>
+      <c r="X34" s="194"/>
+      <c r="Y34" s="194"/>
+      <c r="Z34" s="194"/>
+      <c r="AA34" s="194"/>
+      <c r="AB34" s="194"/>
+      <c r="AC34" s="194"/>
+      <c r="AD34" s="194"/>
+      <c r="AE34" s="194"/>
+      <c r="AF34" s="194"/>
+      <c r="AG34" s="194"/>
+      <c r="AH34" s="195"/>
     </row>
     <row r="35" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="45">
         <v>3</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="152"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="195"/>
       <c r="O35" s="30"/>
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
       <c r="S35" s="54"/>
-      <c r="T35" s="317"/>
-      <c r="U35" s="318"/>
-      <c r="V35" s="150"/>
-      <c r="W35" s="151"/>
-      <c r="X35" s="151"/>
-      <c r="Y35" s="151"/>
-      <c r="Z35" s="151"/>
-      <c r="AA35" s="151"/>
-      <c r="AB35" s="151"/>
-      <c r="AC35" s="151"/>
-      <c r="AD35" s="151"/>
-      <c r="AE35" s="151"/>
-      <c r="AF35" s="151"/>
-      <c r="AG35" s="151"/>
-      <c r="AH35" s="152"/>
+      <c r="T35" s="318"/>
+      <c r="U35" s="319"/>
+      <c r="V35" s="193"/>
+      <c r="W35" s="194"/>
+      <c r="X35" s="194"/>
+      <c r="Y35" s="194"/>
+      <c r="Z35" s="194"/>
+      <c r="AA35" s="194"/>
+      <c r="AB35" s="194"/>
+      <c r="AC35" s="194"/>
+      <c r="AD35" s="194"/>
+      <c r="AE35" s="194"/>
+      <c r="AF35" s="194"/>
+      <c r="AG35" s="194"/>
+      <c r="AH35" s="195"/>
     </row>
     <row r="38" spans="3:36" x14ac:dyDescent="0.15">
       <c r="C38" s="40" t="s">
@@ -13210,14 +13162,14 @@
     </row>
     <row r="39" spans="3:36" x14ac:dyDescent="0.15">
       <c r="D39" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="3:36" x14ac:dyDescent="0.15">
       <c r="E40" s="40"/>
     </row>
     <row r="41" spans="3:36" x14ac:dyDescent="0.15">
-      <c r="E41" s="319" t="s">
+      <c r="E41" s="304" t="s">
         <v>61</v>
       </c>
       <c r="F41" s="320"/>
@@ -13225,148 +13177,148 @@
       <c r="H41" s="320"/>
       <c r="I41" s="320"/>
       <c r="J41" s="320"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="151"/>
-      <c r="W41" s="151"/>
-      <c r="X41" s="151"/>
-      <c r="Y41" s="151"/>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="151"/>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="151"/>
-      <c r="AD41" s="151"/>
-      <c r="AE41" s="151"/>
-      <c r="AF41" s="151"/>
-      <c r="AG41" s="151"/>
-      <c r="AH41" s="152"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="194"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="194"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="194"/>
+      <c r="V41" s="194"/>
+      <c r="W41" s="194"/>
+      <c r="X41" s="194"/>
+      <c r="Y41" s="194"/>
+      <c r="Z41" s="194"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="194"/>
+      <c r="AC41" s="194"/>
+      <c r="AD41" s="194"/>
+      <c r="AE41" s="194"/>
+      <c r="AF41" s="194"/>
+      <c r="AG41" s="194"/>
+      <c r="AH41" s="195"/>
       <c r="AI41" s="97"/>
       <c r="AJ41" s="97"/>
     </row>
     <row r="42" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="323" t="s">
+      <c r="E42" s="292" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="323"/>
-      <c r="G42" s="323"/>
-      <c r="H42" s="323"/>
-      <c r="I42" s="323"/>
-      <c r="J42" s="323"/>
-      <c r="K42" s="323"/>
-      <c r="L42" s="323"/>
-      <c r="M42" s="323"/>
-      <c r="N42" s="323"/>
-      <c r="O42" s="323"/>
-      <c r="P42" s="323"/>
-      <c r="Q42" s="323"/>
-      <c r="R42" s="323"/>
-      <c r="S42" s="323"/>
-      <c r="T42" s="323"/>
-      <c r="U42" s="323"/>
-      <c r="V42" s="323"/>
-      <c r="W42" s="323"/>
-      <c r="X42" s="323"/>
-      <c r="Y42" s="323"/>
-      <c r="Z42" s="323"/>
-      <c r="AA42" s="323"/>
-      <c r="AB42" s="323"/>
-      <c r="AC42" s="323"/>
-      <c r="AD42" s="323"/>
-      <c r="AE42" s="323"/>
-      <c r="AF42" s="323"/>
-      <c r="AG42" s="323"/>
-      <c r="AH42" s="323"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="292"/>
+      <c r="H42" s="292"/>
+      <c r="I42" s="292"/>
+      <c r="J42" s="292"/>
+      <c r="K42" s="292"/>
+      <c r="L42" s="292"/>
+      <c r="M42" s="292"/>
+      <c r="N42" s="292"/>
+      <c r="O42" s="292"/>
+      <c r="P42" s="292"/>
+      <c r="Q42" s="292"/>
+      <c r="R42" s="292"/>
+      <c r="S42" s="292"/>
+      <c r="T42" s="292"/>
+      <c r="U42" s="292"/>
+      <c r="V42" s="292"/>
+      <c r="W42" s="292"/>
+      <c r="X42" s="292"/>
+      <c r="Y42" s="292"/>
+      <c r="Z42" s="292"/>
+      <c r="AA42" s="292"/>
+      <c r="AB42" s="292"/>
+      <c r="AC42" s="292"/>
+      <c r="AD42" s="292"/>
+      <c r="AE42" s="292"/>
+      <c r="AF42" s="292"/>
+      <c r="AG42" s="292"/>
+      <c r="AH42" s="292"/>
       <c r="AI42" s="99"/>
       <c r="AJ42" s="98"/>
     </row>
     <row r="43" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="324" t="s">
+      <c r="E43" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="325" t="s">
+      <c r="F43" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="325"/>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
-      <c r="K43" s="325"/>
-      <c r="L43" s="325" t="s">
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="309"/>
+      <c r="L43" s="309" t="s">
         <v>20</v>
       </c>
-      <c r="M43" s="325"/>
-      <c r="N43" s="325"/>
-      <c r="O43" s="325"/>
-      <c r="P43" s="325"/>
-      <c r="Q43" s="307" t="s">
+      <c r="M43" s="309"/>
+      <c r="N43" s="309"/>
+      <c r="O43" s="309"/>
+      <c r="P43" s="309"/>
+      <c r="Q43" s="316" t="s">
         <v>44</v>
       </c>
-      <c r="R43" s="324" t="s">
+      <c r="R43" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="S43" s="324"/>
-      <c r="T43" s="324"/>
-      <c r="U43" s="324"/>
-      <c r="V43" s="324"/>
-      <c r="W43" s="323" t="s">
+      <c r="S43" s="315"/>
+      <c r="T43" s="315"/>
+      <c r="U43" s="315"/>
+      <c r="V43" s="315"/>
+      <c r="W43" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="X43" s="323"/>
-      <c r="Y43" s="323"/>
-      <c r="Z43" s="323"/>
-      <c r="AA43" s="323"/>
-      <c r="AB43" s="323"/>
-      <c r="AC43" s="323"/>
-      <c r="AD43" s="323"/>
-      <c r="AE43" s="323"/>
-      <c r="AF43" s="323"/>
-      <c r="AG43" s="323"/>
-      <c r="AH43" s="323"/>
+      <c r="X43" s="292"/>
+      <c r="Y43" s="292"/>
+      <c r="Z43" s="292"/>
+      <c r="AA43" s="292"/>
+      <c r="AB43" s="292"/>
+      <c r="AC43" s="292"/>
+      <c r="AD43" s="292"/>
+      <c r="AE43" s="292"/>
+      <c r="AF43" s="292"/>
+      <c r="AG43" s="292"/>
+      <c r="AH43" s="292"/>
       <c r="AI43" s="100"/>
       <c r="AJ43" s="98"/>
     </row>
     <row r="44" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="319"/>
-      <c r="F44" s="323"/>
-      <c r="G44" s="323"/>
-      <c r="H44" s="323"/>
-      <c r="I44" s="323"/>
-      <c r="J44" s="323"/>
-      <c r="K44" s="323"/>
-      <c r="L44" s="323"/>
-      <c r="M44" s="323"/>
-      <c r="N44" s="323"/>
-      <c r="O44" s="323"/>
-      <c r="P44" s="323"/>
-      <c r="Q44" s="326"/>
-      <c r="R44" s="319" t="s">
+      <c r="E44" s="304"/>
+      <c r="F44" s="292"/>
+      <c r="G44" s="292"/>
+      <c r="H44" s="292"/>
+      <c r="I44" s="292"/>
+      <c r="J44" s="292"/>
+      <c r="K44" s="292"/>
+      <c r="L44" s="292"/>
+      <c r="M44" s="292"/>
+      <c r="N44" s="292"/>
+      <c r="O44" s="292"/>
+      <c r="P44" s="292"/>
+      <c r="Q44" s="317"/>
+      <c r="R44" s="304" t="s">
         <v>46</v>
       </c>
-      <c r="S44" s="319"/>
-      <c r="T44" s="319"/>
-      <c r="U44" s="319"/>
-      <c r="V44" s="319"/>
-      <c r="W44" s="323"/>
-      <c r="X44" s="323"/>
-      <c r="Y44" s="323"/>
-      <c r="Z44" s="323"/>
-      <c r="AA44" s="323"/>
-      <c r="AB44" s="323"/>
-      <c r="AC44" s="323"/>
-      <c r="AD44" s="323"/>
-      <c r="AE44" s="323"/>
-      <c r="AF44" s="323"/>
-      <c r="AG44" s="323"/>
-      <c r="AH44" s="323"/>
+      <c r="S44" s="304"/>
+      <c r="T44" s="304"/>
+      <c r="U44" s="304"/>
+      <c r="V44" s="304"/>
+      <c r="W44" s="292"/>
+      <c r="X44" s="292"/>
+      <c r="Y44" s="292"/>
+      <c r="Z44" s="292"/>
+      <c r="AA44" s="292"/>
+      <c r="AB44" s="292"/>
+      <c r="AC44" s="292"/>
+      <c r="AD44" s="292"/>
+      <c r="AE44" s="292"/>
+      <c r="AF44" s="292"/>
+      <c r="AG44" s="292"/>
+      <c r="AH44" s="292"/>
       <c r="AI44" s="100"/>
       <c r="AJ44" s="98"/>
     </row>
@@ -13374,35 +13326,35 @@
       <c r="E45" s="44">
         <v>1</v>
       </c>
-      <c r="F45" s="321"/>
-      <c r="G45" s="321"/>
-      <c r="H45" s="321"/>
-      <c r="I45" s="321"/>
-      <c r="J45" s="321"/>
-      <c r="K45" s="321"/>
-      <c r="L45" s="322"/>
-      <c r="M45" s="322"/>
-      <c r="N45" s="322"/>
-      <c r="O45" s="322"/>
-      <c r="P45" s="322"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="283"/>
+      <c r="H45" s="283"/>
+      <c r="I45" s="283"/>
+      <c r="J45" s="283"/>
+      <c r="K45" s="283"/>
+      <c r="L45" s="314"/>
+      <c r="M45" s="314"/>
+      <c r="N45" s="314"/>
+      <c r="O45" s="314"/>
+      <c r="P45" s="314"/>
       <c r="Q45" s="30"/>
-      <c r="R45" s="321"/>
-      <c r="S45" s="321"/>
-      <c r="T45" s="321"/>
-      <c r="U45" s="321"/>
-      <c r="V45" s="321"/>
-      <c r="W45" s="321"/>
-      <c r="X45" s="321"/>
-      <c r="Y45" s="321"/>
-      <c r="Z45" s="321"/>
-      <c r="AA45" s="321"/>
-      <c r="AB45" s="321"/>
-      <c r="AC45" s="321"/>
-      <c r="AD45" s="321"/>
-      <c r="AE45" s="321"/>
-      <c r="AF45" s="321"/>
-      <c r="AG45" s="321"/>
-      <c r="AH45" s="321"/>
+      <c r="R45" s="283"/>
+      <c r="S45" s="283"/>
+      <c r="T45" s="283"/>
+      <c r="U45" s="283"/>
+      <c r="V45" s="283"/>
+      <c r="W45" s="283"/>
+      <c r="X45" s="283"/>
+      <c r="Y45" s="283"/>
+      <c r="Z45" s="283"/>
+      <c r="AA45" s="283"/>
+      <c r="AB45" s="283"/>
+      <c r="AC45" s="283"/>
+      <c r="AD45" s="283"/>
+      <c r="AE45" s="283"/>
+      <c r="AF45" s="283"/>
+      <c r="AG45" s="283"/>
+      <c r="AH45" s="283"/>
       <c r="AI45" s="24"/>
       <c r="AJ45" s="98"/>
     </row>
@@ -13410,35 +13362,35 @@
       <c r="E46" s="44">
         <v>2</v>
       </c>
-      <c r="F46" s="321"/>
-      <c r="G46" s="321"/>
-      <c r="H46" s="321"/>
-      <c r="I46" s="321"/>
-      <c r="J46" s="321"/>
-      <c r="K46" s="321"/>
-      <c r="L46" s="322"/>
-      <c r="M46" s="322"/>
-      <c r="N46" s="322"/>
-      <c r="O46" s="322"/>
-      <c r="P46" s="322"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="283"/>
+      <c r="H46" s="283"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="314"/>
+      <c r="M46" s="314"/>
+      <c r="N46" s="314"/>
+      <c r="O46" s="314"/>
+      <c r="P46" s="314"/>
       <c r="Q46" s="30"/>
-      <c r="R46" s="321"/>
-      <c r="S46" s="321"/>
-      <c r="T46" s="321"/>
-      <c r="U46" s="321"/>
-      <c r="V46" s="321"/>
-      <c r="W46" s="321"/>
-      <c r="X46" s="321"/>
-      <c r="Y46" s="321"/>
-      <c r="Z46" s="321"/>
-      <c r="AA46" s="321"/>
-      <c r="AB46" s="321"/>
-      <c r="AC46" s="321"/>
-      <c r="AD46" s="321"/>
-      <c r="AE46" s="321"/>
-      <c r="AF46" s="321"/>
-      <c r="AG46" s="321"/>
-      <c r="AH46" s="321"/>
+      <c r="R46" s="283"/>
+      <c r="S46" s="283"/>
+      <c r="T46" s="283"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="283"/>
+      <c r="W46" s="283"/>
+      <c r="X46" s="283"/>
+      <c r="Y46" s="283"/>
+      <c r="Z46" s="283"/>
+      <c r="AA46" s="283"/>
+      <c r="AB46" s="283"/>
+      <c r="AC46" s="283"/>
+      <c r="AD46" s="283"/>
+      <c r="AE46" s="283"/>
+      <c r="AF46" s="283"/>
+      <c r="AG46" s="283"/>
+      <c r="AH46" s="283"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="97"/>
     </row>
@@ -13446,35 +13398,35 @@
       <c r="E47" s="44">
         <v>3</v>
       </c>
-      <c r="F47" s="321"/>
-      <c r="G47" s="321"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="321"/>
-      <c r="J47" s="321"/>
-      <c r="K47" s="321"/>
-      <c r="L47" s="322"/>
-      <c r="M47" s="322"/>
-      <c r="N47" s="322"/>
-      <c r="O47" s="322"/>
-      <c r="P47" s="322"/>
+      <c r="F47" s="283"/>
+      <c r="G47" s="283"/>
+      <c r="H47" s="283"/>
+      <c r="I47" s="283"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="314"/>
+      <c r="M47" s="314"/>
+      <c r="N47" s="314"/>
+      <c r="O47" s="314"/>
+      <c r="P47" s="314"/>
       <c r="Q47" s="30"/>
-      <c r="R47" s="321"/>
-      <c r="S47" s="321"/>
-      <c r="T47" s="321"/>
-      <c r="U47" s="321"/>
-      <c r="V47" s="321"/>
-      <c r="W47" s="321"/>
-      <c r="X47" s="321"/>
-      <c r="Y47" s="321"/>
-      <c r="Z47" s="321"/>
-      <c r="AA47" s="321"/>
-      <c r="AB47" s="321"/>
-      <c r="AC47" s="321"/>
-      <c r="AD47" s="321"/>
-      <c r="AE47" s="321"/>
-      <c r="AF47" s="321"/>
-      <c r="AG47" s="321"/>
-      <c r="AH47" s="321"/>
+      <c r="R47" s="283"/>
+      <c r="S47" s="283"/>
+      <c r="T47" s="283"/>
+      <c r="U47" s="283"/>
+      <c r="V47" s="283"/>
+      <c r="W47" s="283"/>
+      <c r="X47" s="283"/>
+      <c r="Y47" s="283"/>
+      <c r="Z47" s="283"/>
+      <c r="AA47" s="283"/>
+      <c r="AB47" s="283"/>
+      <c r="AC47" s="283"/>
+      <c r="AD47" s="283"/>
+      <c r="AE47" s="283"/>
+      <c r="AF47" s="283"/>
+      <c r="AG47" s="283"/>
+      <c r="AH47" s="283"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="97"/>
     </row>
@@ -13548,7 +13500,7 @@
     </row>
     <row r="50" spans="2:36" x14ac:dyDescent="0.15">
       <c r="D50" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E50" s="119"/>
       <c r="F50" s="23"/>
@@ -13619,7 +13571,7 @@
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E52" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -13722,39 +13674,39 @@
       <c r="AJ54" s="97"/>
     </row>
     <row r="55" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E55" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="332"/>
-      <c r="G55" s="333"/>
-      <c r="H55" s="334"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="336"/>
-      <c r="M55" s="331" t="s">
-        <v>99</v>
-      </c>
-      <c r="N55" s="332"/>
-      <c r="O55" s="333"/>
-      <c r="P55" s="334"/>
-      <c r="Q55" s="335"/>
-      <c r="R55" s="335"/>
-      <c r="S55" s="335"/>
-      <c r="T55" s="335"/>
-      <c r="U55" s="335"/>
-      <c r="V55" s="335"/>
-      <c r="W55" s="335"/>
-      <c r="X55" s="335"/>
-      <c r="Y55" s="335"/>
-      <c r="Z55" s="335"/>
-      <c r="AA55" s="335"/>
-      <c r="AB55" s="335"/>
-      <c r="AC55" s="335"/>
-      <c r="AD55" s="335"/>
-      <c r="AE55" s="335"/>
-      <c r="AF55" s="335"/>
-      <c r="AG55" s="336"/>
+      <c r="E55" s="276" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="277"/>
+      <c r="G55" s="278"/>
+      <c r="H55" s="273"/>
+      <c r="I55" s="274"/>
+      <c r="J55" s="274"/>
+      <c r="K55" s="274"/>
+      <c r="L55" s="275"/>
+      <c r="M55" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="N55" s="277"/>
+      <c r="O55" s="278"/>
+      <c r="P55" s="273"/>
+      <c r="Q55" s="274"/>
+      <c r="R55" s="274"/>
+      <c r="S55" s="274"/>
+      <c r="T55" s="274"/>
+      <c r="U55" s="274"/>
+      <c r="V55" s="274"/>
+      <c r="W55" s="274"/>
+      <c r="X55" s="274"/>
+      <c r="Y55" s="274"/>
+      <c r="Z55" s="274"/>
+      <c r="AA55" s="274"/>
+      <c r="AB55" s="274"/>
+      <c r="AC55" s="274"/>
+      <c r="AD55" s="274"/>
+      <c r="AE55" s="274"/>
+      <c r="AF55" s="274"/>
+      <c r="AG55" s="275"/>
       <c r="AH55" s="23"/>
       <c r="AI55" s="23"/>
       <c r="AJ55" s="97"/>
@@ -13970,7 +13922,7 @@
     <row r="89" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C89" s="40"/>
       <c r="D89" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
@@ -14039,188 +13991,188 @@
     </row>
     <row r="91" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C91" s="40"/>
-      <c r="E91" s="327" t="s">
+      <c r="E91" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="F91" s="237" t="s">
+      <c r="F91" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="238"/>
-      <c r="H91" s="238"/>
-      <c r="I91" s="238"/>
-      <c r="J91" s="239"/>
-      <c r="K91" s="285" t="s">
+      <c r="G91" s="268"/>
+      <c r="H91" s="268"/>
+      <c r="I91" s="268"/>
+      <c r="J91" s="269"/>
+      <c r="K91" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="L91" s="286"/>
-      <c r="M91" s="286"/>
-      <c r="N91" s="286"/>
-      <c r="O91" s="286"/>
-      <c r="P91" s="286"/>
-      <c r="Q91" s="286"/>
-      <c r="R91" s="286"/>
-      <c r="S91" s="286"/>
-      <c r="T91" s="286"/>
-      <c r="U91" s="287"/>
-      <c r="V91" s="237" t="s">
+      <c r="L91" s="311"/>
+      <c r="M91" s="311"/>
+      <c r="N91" s="311"/>
+      <c r="O91" s="311"/>
+      <c r="P91" s="311"/>
+      <c r="Q91" s="311"/>
+      <c r="R91" s="311"/>
+      <c r="S91" s="311"/>
+      <c r="T91" s="311"/>
+      <c r="U91" s="312"/>
+      <c r="V91" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="W91" s="238"/>
-      <c r="X91" s="238"/>
-      <c r="Y91" s="238"/>
-      <c r="Z91" s="238"/>
-      <c r="AA91" s="238"/>
-      <c r="AB91" s="238"/>
-      <c r="AC91" s="239"/>
-      <c r="AD91" s="237" t="s">
+      <c r="W91" s="268"/>
+      <c r="X91" s="268"/>
+      <c r="Y91" s="268"/>
+      <c r="Z91" s="268"/>
+      <c r="AA91" s="268"/>
+      <c r="AB91" s="268"/>
+      <c r="AC91" s="269"/>
+      <c r="AD91" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="AE91" s="238"/>
-      <c r="AF91" s="238"/>
-      <c r="AG91" s="238"/>
-      <c r="AH91" s="239"/>
+      <c r="AE91" s="268"/>
+      <c r="AF91" s="268"/>
+      <c r="AG91" s="268"/>
+      <c r="AH91" s="269"/>
     </row>
     <row r="92" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C92" s="40"/>
-      <c r="E92" s="325"/>
-      <c r="F92" s="240"/>
-      <c r="G92" s="241"/>
-      <c r="H92" s="241"/>
-      <c r="I92" s="241"/>
-      <c r="J92" s="242"/>
-      <c r="K92" s="285" t="s">
+      <c r="E92" s="309"/>
+      <c r="F92" s="270"/>
+      <c r="G92" s="271"/>
+      <c r="H92" s="271"/>
+      <c r="I92" s="271"/>
+      <c r="J92" s="272"/>
+      <c r="K92" s="310" t="s">
         <v>24</v>
       </c>
-      <c r="L92" s="286"/>
-      <c r="M92" s="286"/>
-      <c r="N92" s="286"/>
-      <c r="O92" s="286"/>
-      <c r="P92" s="287"/>
-      <c r="Q92" s="285" t="s">
+      <c r="L92" s="311"/>
+      <c r="M92" s="311"/>
+      <c r="N92" s="311"/>
+      <c r="O92" s="311"/>
+      <c r="P92" s="312"/>
+      <c r="Q92" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="R92" s="286"/>
-      <c r="S92" s="286"/>
-      <c r="T92" s="286"/>
-      <c r="U92" s="287"/>
-      <c r="V92" s="240"/>
-      <c r="W92" s="241"/>
-      <c r="X92" s="241"/>
-      <c r="Y92" s="241"/>
-      <c r="Z92" s="241"/>
-      <c r="AA92" s="241"/>
-      <c r="AB92" s="241"/>
-      <c r="AC92" s="242"/>
-      <c r="AD92" s="328"/>
-      <c r="AE92" s="329"/>
-      <c r="AF92" s="329"/>
-      <c r="AG92" s="329"/>
-      <c r="AH92" s="330"/>
+      <c r="R92" s="311"/>
+      <c r="S92" s="311"/>
+      <c r="T92" s="311"/>
+      <c r="U92" s="312"/>
+      <c r="V92" s="270"/>
+      <c r="W92" s="271"/>
+      <c r="X92" s="271"/>
+      <c r="Y92" s="271"/>
+      <c r="Z92" s="271"/>
+      <c r="AA92" s="271"/>
+      <c r="AB92" s="271"/>
+      <c r="AC92" s="272"/>
+      <c r="AD92" s="301"/>
+      <c r="AE92" s="302"/>
+      <c r="AF92" s="302"/>
+      <c r="AG92" s="302"/>
+      <c r="AH92" s="303"/>
     </row>
     <row r="93" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C93" s="40"/>
       <c r="E93" s="45">
         <v>1</v>
       </c>
-      <c r="F93" s="337"/>
-      <c r="G93" s="338"/>
-      <c r="H93" s="338"/>
-      <c r="I93" s="338"/>
-      <c r="J93" s="339"/>
-      <c r="K93" s="337"/>
-      <c r="L93" s="338"/>
-      <c r="M93" s="338"/>
-      <c r="N93" s="338"/>
-      <c r="O93" s="338"/>
-      <c r="P93" s="339"/>
-      <c r="Q93" s="337"/>
-      <c r="R93" s="338"/>
-      <c r="S93" s="338"/>
-      <c r="T93" s="338"/>
-      <c r="U93" s="339"/>
-      <c r="V93" s="337"/>
-      <c r="W93" s="338"/>
-      <c r="X93" s="338"/>
-      <c r="Y93" s="338"/>
-      <c r="Z93" s="338"/>
-      <c r="AA93" s="338"/>
-      <c r="AB93" s="338"/>
-      <c r="AC93" s="339"/>
-      <c r="AD93" s="150"/>
-      <c r="AE93" s="151"/>
-      <c r="AF93" s="151"/>
-      <c r="AG93" s="151"/>
-      <c r="AH93" s="152"/>
+      <c r="F93" s="306"/>
+      <c r="G93" s="281"/>
+      <c r="H93" s="281"/>
+      <c r="I93" s="281"/>
+      <c r="J93" s="307"/>
+      <c r="K93" s="306"/>
+      <c r="L93" s="281"/>
+      <c r="M93" s="281"/>
+      <c r="N93" s="281"/>
+      <c r="O93" s="281"/>
+      <c r="P93" s="307"/>
+      <c r="Q93" s="306"/>
+      <c r="R93" s="281"/>
+      <c r="S93" s="281"/>
+      <c r="T93" s="281"/>
+      <c r="U93" s="307"/>
+      <c r="V93" s="306"/>
+      <c r="W93" s="281"/>
+      <c r="X93" s="281"/>
+      <c r="Y93" s="281"/>
+      <c r="Z93" s="281"/>
+      <c r="AA93" s="281"/>
+      <c r="AB93" s="281"/>
+      <c r="AC93" s="307"/>
+      <c r="AD93" s="193"/>
+      <c r="AE93" s="194"/>
+      <c r="AF93" s="194"/>
+      <c r="AG93" s="194"/>
+      <c r="AH93" s="195"/>
     </row>
     <row r="94" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C94" s="40"/>
       <c r="E94" s="45">
         <v>2</v>
       </c>
-      <c r="F94" s="337"/>
-      <c r="G94" s="338"/>
-      <c r="H94" s="338"/>
-      <c r="I94" s="338"/>
-      <c r="J94" s="339"/>
-      <c r="K94" s="337"/>
-      <c r="L94" s="338"/>
-      <c r="M94" s="338"/>
-      <c r="N94" s="338"/>
-      <c r="O94" s="338"/>
-      <c r="P94" s="339"/>
-      <c r="Q94" s="337"/>
-      <c r="R94" s="338"/>
-      <c r="S94" s="338"/>
-      <c r="T94" s="338"/>
-      <c r="U94" s="339"/>
-      <c r="V94" s="337"/>
-      <c r="W94" s="338"/>
-      <c r="X94" s="338"/>
-      <c r="Y94" s="338"/>
-      <c r="Z94" s="338"/>
-      <c r="AA94" s="338"/>
-      <c r="AB94" s="338"/>
-      <c r="AC94" s="339"/>
-      <c r="AD94" s="150"/>
-      <c r="AE94" s="151"/>
-      <c r="AF94" s="151"/>
-      <c r="AG94" s="151"/>
-      <c r="AH94" s="152"/>
+      <c r="F94" s="306"/>
+      <c r="G94" s="281"/>
+      <c r="H94" s="281"/>
+      <c r="I94" s="281"/>
+      <c r="J94" s="307"/>
+      <c r="K94" s="306"/>
+      <c r="L94" s="281"/>
+      <c r="M94" s="281"/>
+      <c r="N94" s="281"/>
+      <c r="O94" s="281"/>
+      <c r="P94" s="307"/>
+      <c r="Q94" s="306"/>
+      <c r="R94" s="281"/>
+      <c r="S94" s="281"/>
+      <c r="T94" s="281"/>
+      <c r="U94" s="307"/>
+      <c r="V94" s="306"/>
+      <c r="W94" s="281"/>
+      <c r="X94" s="281"/>
+      <c r="Y94" s="281"/>
+      <c r="Z94" s="281"/>
+      <c r="AA94" s="281"/>
+      <c r="AB94" s="281"/>
+      <c r="AC94" s="307"/>
+      <c r="AD94" s="193"/>
+      <c r="AE94" s="194"/>
+      <c r="AF94" s="194"/>
+      <c r="AG94" s="194"/>
+      <c r="AH94" s="195"/>
     </row>
     <row r="95" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C95" s="40"/>
       <c r="E95" s="45">
         <v>3</v>
       </c>
-      <c r="F95" s="337"/>
-      <c r="G95" s="338"/>
-      <c r="H95" s="338"/>
-      <c r="I95" s="338"/>
-      <c r="J95" s="339"/>
-      <c r="K95" s="337"/>
-      <c r="L95" s="338"/>
-      <c r="M95" s="338"/>
-      <c r="N95" s="338"/>
-      <c r="O95" s="338"/>
-      <c r="P95" s="339"/>
-      <c r="Q95" s="337"/>
-      <c r="R95" s="338"/>
-      <c r="S95" s="338"/>
-      <c r="T95" s="338"/>
-      <c r="U95" s="339"/>
-      <c r="V95" s="337"/>
-      <c r="W95" s="338"/>
-      <c r="X95" s="338"/>
-      <c r="Y95" s="338"/>
-      <c r="Z95" s="338"/>
-      <c r="AA95" s="338"/>
-      <c r="AB95" s="338"/>
-      <c r="AC95" s="339"/>
-      <c r="AD95" s="150"/>
-      <c r="AE95" s="151"/>
-      <c r="AF95" s="151"/>
-      <c r="AG95" s="151"/>
-      <c r="AH95" s="152"/>
+      <c r="F95" s="306"/>
+      <c r="G95" s="281"/>
+      <c r="H95" s="281"/>
+      <c r="I95" s="281"/>
+      <c r="J95" s="307"/>
+      <c r="K95" s="306"/>
+      <c r="L95" s="281"/>
+      <c r="M95" s="281"/>
+      <c r="N95" s="281"/>
+      <c r="O95" s="281"/>
+      <c r="P95" s="307"/>
+      <c r="Q95" s="306"/>
+      <c r="R95" s="281"/>
+      <c r="S95" s="281"/>
+      <c r="T95" s="281"/>
+      <c r="U95" s="307"/>
+      <c r="V95" s="306"/>
+      <c r="W95" s="281"/>
+      <c r="X95" s="281"/>
+      <c r="Y95" s="281"/>
+      <c r="Z95" s="281"/>
+      <c r="AA95" s="281"/>
+      <c r="AB95" s="281"/>
+      <c r="AC95" s="307"/>
+      <c r="AD95" s="193"/>
+      <c r="AE95" s="194"/>
+      <c r="AF95" s="194"/>
+      <c r="AG95" s="194"/>
+      <c r="AH95" s="195"/>
     </row>
     <row r="96" spans="2:70" x14ac:dyDescent="0.15">
       <c r="C96" s="40"/>
@@ -14230,7 +14182,7 @@
     </row>
     <row r="98" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D98" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
@@ -14298,223 +14250,223 @@
       <c r="AI99" s="18"/>
     </row>
     <row r="100" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="E100" s="231" t="s">
+      <c r="E100" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="F100" s="232"/>
-      <c r="G100" s="232"/>
-      <c r="H100" s="232"/>
-      <c r="I100" s="232"/>
-      <c r="J100" s="233"/>
-      <c r="K100" s="340"/>
-      <c r="L100" s="341"/>
-      <c r="M100" s="341"/>
-      <c r="N100" s="341"/>
-      <c r="O100" s="341"/>
-      <c r="P100" s="341"/>
-      <c r="Q100" s="341"/>
-      <c r="R100" s="341"/>
-      <c r="S100" s="341"/>
-      <c r="T100" s="341"/>
-      <c r="U100" s="341"/>
-      <c r="V100" s="341"/>
-      <c r="W100" s="341"/>
-      <c r="X100" s="341"/>
-      <c r="Y100" s="341"/>
-      <c r="Z100" s="341"/>
-      <c r="AA100" s="341"/>
-      <c r="AB100" s="341"/>
-      <c r="AC100" s="341"/>
-      <c r="AD100" s="341"/>
-      <c r="AE100" s="341"/>
-      <c r="AF100" s="341"/>
-      <c r="AG100" s="341"/>
-      <c r="AH100" s="342"/>
+      <c r="F100" s="262"/>
+      <c r="G100" s="262"/>
+      <c r="H100" s="262"/>
+      <c r="I100" s="262"/>
+      <c r="J100" s="263"/>
+      <c r="K100" s="313"/>
+      <c r="L100" s="287"/>
+      <c r="M100" s="287"/>
+      <c r="N100" s="287"/>
+      <c r="O100" s="287"/>
+      <c r="P100" s="287"/>
+      <c r="Q100" s="287"/>
+      <c r="R100" s="287"/>
+      <c r="S100" s="287"/>
+      <c r="T100" s="287"/>
+      <c r="U100" s="287"/>
+      <c r="V100" s="287"/>
+      <c r="W100" s="287"/>
+      <c r="X100" s="287"/>
+      <c r="Y100" s="287"/>
+      <c r="Z100" s="287"/>
+      <c r="AA100" s="287"/>
+      <c r="AB100" s="287"/>
+      <c r="AC100" s="287"/>
+      <c r="AD100" s="287"/>
+      <c r="AE100" s="287"/>
+      <c r="AF100" s="287"/>
+      <c r="AG100" s="287"/>
+      <c r="AH100" s="288"/>
       <c r="AI100" s="18"/>
     </row>
     <row r="101" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="E101" s="327" t="s">
+      <c r="E101" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="F101" s="237" t="s">
+      <c r="F101" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="238"/>
-      <c r="H101" s="238"/>
-      <c r="I101" s="238"/>
-      <c r="J101" s="239"/>
-      <c r="K101" s="285" t="s">
+      <c r="G101" s="268"/>
+      <c r="H101" s="268"/>
+      <c r="I101" s="268"/>
+      <c r="J101" s="269"/>
+      <c r="K101" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="L101" s="286"/>
-      <c r="M101" s="286"/>
-      <c r="N101" s="286"/>
-      <c r="O101" s="286"/>
-      <c r="P101" s="286"/>
-      <c r="Q101" s="286"/>
-      <c r="R101" s="286"/>
-      <c r="S101" s="286"/>
-      <c r="T101" s="286"/>
-      <c r="U101" s="287"/>
-      <c r="V101" s="237" t="s">
+      <c r="L101" s="311"/>
+      <c r="M101" s="311"/>
+      <c r="N101" s="311"/>
+      <c r="O101" s="311"/>
+      <c r="P101" s="311"/>
+      <c r="Q101" s="311"/>
+      <c r="R101" s="311"/>
+      <c r="S101" s="311"/>
+      <c r="T101" s="311"/>
+      <c r="U101" s="312"/>
+      <c r="V101" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="W101" s="238"/>
-      <c r="X101" s="238"/>
-      <c r="Y101" s="238"/>
-      <c r="Z101" s="238"/>
-      <c r="AA101" s="238"/>
-      <c r="AB101" s="238"/>
-      <c r="AC101" s="239"/>
-      <c r="AD101" s="237" t="s">
+      <c r="W101" s="268"/>
+      <c r="X101" s="268"/>
+      <c r="Y101" s="268"/>
+      <c r="Z101" s="268"/>
+      <c r="AA101" s="268"/>
+      <c r="AB101" s="268"/>
+      <c r="AC101" s="269"/>
+      <c r="AD101" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="AE101" s="238"/>
-      <c r="AF101" s="238"/>
-      <c r="AG101" s="238"/>
-      <c r="AH101" s="239"/>
+      <c r="AE101" s="268"/>
+      <c r="AF101" s="268"/>
+      <c r="AG101" s="268"/>
+      <c r="AH101" s="269"/>
       <c r="AI101" s="52"/>
     </row>
     <row r="102" spans="3:35" x14ac:dyDescent="0.15">
-      <c r="E102" s="325"/>
-      <c r="F102" s="240"/>
-      <c r="G102" s="241"/>
-      <c r="H102" s="241"/>
-      <c r="I102" s="241"/>
-      <c r="J102" s="242"/>
-      <c r="K102" s="285" t="s">
+      <c r="E102" s="309"/>
+      <c r="F102" s="270"/>
+      <c r="G102" s="271"/>
+      <c r="H102" s="271"/>
+      <c r="I102" s="271"/>
+      <c r="J102" s="272"/>
+      <c r="K102" s="310" t="s">
         <v>24</v>
       </c>
-      <c r="L102" s="286"/>
-      <c r="M102" s="286"/>
-      <c r="N102" s="286"/>
-      <c r="O102" s="286"/>
-      <c r="P102" s="287"/>
-      <c r="Q102" s="285" t="s">
+      <c r="L102" s="311"/>
+      <c r="M102" s="311"/>
+      <c r="N102" s="311"/>
+      <c r="O102" s="311"/>
+      <c r="P102" s="312"/>
+      <c r="Q102" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="R102" s="286"/>
-      <c r="S102" s="286"/>
-      <c r="T102" s="286"/>
-      <c r="U102" s="287"/>
-      <c r="V102" s="240"/>
-      <c r="W102" s="241"/>
-      <c r="X102" s="241"/>
-      <c r="Y102" s="241"/>
-      <c r="Z102" s="241"/>
-      <c r="AA102" s="241"/>
-      <c r="AB102" s="241"/>
-      <c r="AC102" s="242"/>
-      <c r="AD102" s="328"/>
-      <c r="AE102" s="329"/>
-      <c r="AF102" s="329"/>
-      <c r="AG102" s="329"/>
-      <c r="AH102" s="330"/>
+      <c r="R102" s="311"/>
+      <c r="S102" s="311"/>
+      <c r="T102" s="311"/>
+      <c r="U102" s="312"/>
+      <c r="V102" s="270"/>
+      <c r="W102" s="271"/>
+      <c r="X102" s="271"/>
+      <c r="Y102" s="271"/>
+      <c r="Z102" s="271"/>
+      <c r="AA102" s="271"/>
+      <c r="AB102" s="271"/>
+      <c r="AC102" s="272"/>
+      <c r="AD102" s="301"/>
+      <c r="AE102" s="302"/>
+      <c r="AF102" s="302"/>
+      <c r="AG102" s="302"/>
+      <c r="AH102" s="303"/>
       <c r="AI102" s="47"/>
     </row>
     <row r="103" spans="3:35" x14ac:dyDescent="0.15">
       <c r="E103" s="45">
         <v>1</v>
       </c>
-      <c r="F103" s="337"/>
-      <c r="G103" s="338"/>
-      <c r="H103" s="338"/>
-      <c r="I103" s="338"/>
-      <c r="J103" s="339"/>
-      <c r="K103" s="337"/>
-      <c r="L103" s="338"/>
-      <c r="M103" s="338"/>
-      <c r="N103" s="338"/>
-      <c r="O103" s="338"/>
-      <c r="P103" s="339"/>
-      <c r="Q103" s="337"/>
-      <c r="R103" s="338"/>
-      <c r="S103" s="338"/>
-      <c r="T103" s="338"/>
-      <c r="U103" s="339"/>
-      <c r="V103" s="337"/>
-      <c r="W103" s="338"/>
-      <c r="X103" s="338"/>
-      <c r="Y103" s="338"/>
-      <c r="Z103" s="338"/>
-      <c r="AA103" s="338"/>
-      <c r="AB103" s="338"/>
-      <c r="AC103" s="339"/>
-      <c r="AD103" s="150"/>
-      <c r="AE103" s="151"/>
-      <c r="AF103" s="151"/>
-      <c r="AG103" s="151"/>
-      <c r="AH103" s="152"/>
+      <c r="F103" s="306"/>
+      <c r="G103" s="281"/>
+      <c r="H103" s="281"/>
+      <c r="I103" s="281"/>
+      <c r="J103" s="307"/>
+      <c r="K103" s="306"/>
+      <c r="L103" s="281"/>
+      <c r="M103" s="281"/>
+      <c r="N103" s="281"/>
+      <c r="O103" s="281"/>
+      <c r="P103" s="307"/>
+      <c r="Q103" s="306"/>
+      <c r="R103" s="281"/>
+      <c r="S103" s="281"/>
+      <c r="T103" s="281"/>
+      <c r="U103" s="307"/>
+      <c r="V103" s="306"/>
+      <c r="W103" s="281"/>
+      <c r="X103" s="281"/>
+      <c r="Y103" s="281"/>
+      <c r="Z103" s="281"/>
+      <c r="AA103" s="281"/>
+      <c r="AB103" s="281"/>
+      <c r="AC103" s="307"/>
+      <c r="AD103" s="193"/>
+      <c r="AE103" s="194"/>
+      <c r="AF103" s="194"/>
+      <c r="AG103" s="194"/>
+      <c r="AH103" s="195"/>
       <c r="AI103" s="47"/>
     </row>
     <row r="104" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="45">
         <v>2</v>
       </c>
-      <c r="F104" s="337"/>
-      <c r="G104" s="338"/>
-      <c r="H104" s="338"/>
-      <c r="I104" s="338"/>
-      <c r="J104" s="339"/>
-      <c r="K104" s="337"/>
-      <c r="L104" s="338"/>
-      <c r="M104" s="338"/>
-      <c r="N104" s="338"/>
-      <c r="O104" s="338"/>
-      <c r="P104" s="339"/>
-      <c r="Q104" s="337"/>
-      <c r="R104" s="338"/>
-      <c r="S104" s="338"/>
-      <c r="T104" s="338"/>
-      <c r="U104" s="339"/>
-      <c r="V104" s="337"/>
-      <c r="W104" s="338"/>
-      <c r="X104" s="338"/>
-      <c r="Y104" s="338"/>
-      <c r="Z104" s="338"/>
-      <c r="AA104" s="338"/>
-      <c r="AB104" s="338"/>
-      <c r="AC104" s="339"/>
-      <c r="AD104" s="150"/>
-      <c r="AE104" s="151"/>
-      <c r="AF104" s="151"/>
-      <c r="AG104" s="151"/>
-      <c r="AH104" s="152"/>
+      <c r="F104" s="306"/>
+      <c r="G104" s="281"/>
+      <c r="H104" s="281"/>
+      <c r="I104" s="281"/>
+      <c r="J104" s="307"/>
+      <c r="K104" s="306"/>
+      <c r="L104" s="281"/>
+      <c r="M104" s="281"/>
+      <c r="N104" s="281"/>
+      <c r="O104" s="281"/>
+      <c r="P104" s="307"/>
+      <c r="Q104" s="306"/>
+      <c r="R104" s="281"/>
+      <c r="S104" s="281"/>
+      <c r="T104" s="281"/>
+      <c r="U104" s="307"/>
+      <c r="V104" s="306"/>
+      <c r="W104" s="281"/>
+      <c r="X104" s="281"/>
+      <c r="Y104" s="281"/>
+      <c r="Z104" s="281"/>
+      <c r="AA104" s="281"/>
+      <c r="AB104" s="281"/>
+      <c r="AC104" s="307"/>
+      <c r="AD104" s="193"/>
+      <c r="AE104" s="194"/>
+      <c r="AF104" s="194"/>
+      <c r="AG104" s="194"/>
+      <c r="AH104" s="195"/>
       <c r="AI104" s="49"/>
     </row>
     <row r="105" spans="3:35" x14ac:dyDescent="0.15">
       <c r="E105" s="45">
         <v>3</v>
       </c>
-      <c r="F105" s="337"/>
-      <c r="G105" s="338"/>
-      <c r="H105" s="338"/>
-      <c r="I105" s="338"/>
-      <c r="J105" s="339"/>
-      <c r="K105" s="337"/>
-      <c r="L105" s="338"/>
-      <c r="M105" s="338"/>
-      <c r="N105" s="338"/>
-      <c r="O105" s="338"/>
-      <c r="P105" s="339"/>
-      <c r="Q105" s="337"/>
-      <c r="R105" s="338"/>
-      <c r="S105" s="338"/>
-      <c r="T105" s="338"/>
-      <c r="U105" s="339"/>
-      <c r="V105" s="337"/>
-      <c r="W105" s="338"/>
-      <c r="X105" s="338"/>
-      <c r="Y105" s="338"/>
-      <c r="Z105" s="338"/>
-      <c r="AA105" s="338"/>
-      <c r="AB105" s="338"/>
-      <c r="AC105" s="339"/>
-      <c r="AD105" s="150"/>
-      <c r="AE105" s="151"/>
-      <c r="AF105" s="151"/>
-      <c r="AG105" s="151"/>
-      <c r="AH105" s="152"/>
+      <c r="F105" s="306"/>
+      <c r="G105" s="281"/>
+      <c r="H105" s="281"/>
+      <c r="I105" s="281"/>
+      <c r="J105" s="307"/>
+      <c r="K105" s="306"/>
+      <c r="L105" s="281"/>
+      <c r="M105" s="281"/>
+      <c r="N105" s="281"/>
+      <c r="O105" s="281"/>
+      <c r="P105" s="307"/>
+      <c r="Q105" s="306"/>
+      <c r="R105" s="281"/>
+      <c r="S105" s="281"/>
+      <c r="T105" s="281"/>
+      <c r="U105" s="307"/>
+      <c r="V105" s="306"/>
+      <c r="W105" s="281"/>
+      <c r="X105" s="281"/>
+      <c r="Y105" s="281"/>
+      <c r="Z105" s="281"/>
+      <c r="AA105" s="281"/>
+      <c r="AB105" s="281"/>
+      <c r="AC105" s="307"/>
+      <c r="AD105" s="193"/>
+      <c r="AE105" s="194"/>
+      <c r="AF105" s="194"/>
+      <c r="AG105" s="194"/>
+      <c r="AH105" s="195"/>
       <c r="AI105" s="49"/>
     </row>
     <row r="106" spans="3:35" x14ac:dyDescent="0.15">
@@ -14525,17 +14477,17 @@
     </row>
     <row r="108" spans="3:35" x14ac:dyDescent="0.15">
       <c r="D108" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="3:35" x14ac:dyDescent="0.15">
       <c r="E110" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="3:35" x14ac:dyDescent="0.15">
       <c r="F112" s="59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
@@ -14598,45 +14550,45 @@
       <c r="AH113" s="18"/>
     </row>
     <row r="114" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="F114" s="331" t="s">
-        <v>98</v>
-      </c>
-      <c r="G114" s="332"/>
-      <c r="H114" s="333"/>
-      <c r="I114" s="334"/>
-      <c r="J114" s="335"/>
-      <c r="K114" s="335"/>
-      <c r="L114" s="335"/>
-      <c r="M114" s="336"/>
-      <c r="N114" s="331" t="s">
-        <v>99</v>
-      </c>
-      <c r="O114" s="332"/>
-      <c r="P114" s="333"/>
-      <c r="Q114" s="334"/>
-      <c r="R114" s="335"/>
-      <c r="S114" s="335"/>
-      <c r="T114" s="335"/>
-      <c r="U114" s="335"/>
-      <c r="V114" s="335"/>
-      <c r="W114" s="335"/>
-      <c r="X114" s="335"/>
-      <c r="Y114" s="335"/>
-      <c r="Z114" s="335"/>
-      <c r="AA114" s="335"/>
-      <c r="AB114" s="335"/>
-      <c r="AC114" s="335"/>
-      <c r="AD114" s="335"/>
-      <c r="AE114" s="335"/>
-      <c r="AF114" s="335"/>
-      <c r="AG114" s="335"/>
-      <c r="AH114" s="336"/>
+      <c r="F114" s="276" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" s="277"/>
+      <c r="H114" s="278"/>
+      <c r="I114" s="273"/>
+      <c r="J114" s="274"/>
+      <c r="K114" s="274"/>
+      <c r="L114" s="274"/>
+      <c r="M114" s="275"/>
+      <c r="N114" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="O114" s="277"/>
+      <c r="P114" s="278"/>
+      <c r="Q114" s="273"/>
+      <c r="R114" s="274"/>
+      <c r="S114" s="274"/>
+      <c r="T114" s="274"/>
+      <c r="U114" s="274"/>
+      <c r="V114" s="274"/>
+      <c r="W114" s="274"/>
+      <c r="X114" s="274"/>
+      <c r="Y114" s="274"/>
+      <c r="Z114" s="274"/>
+      <c r="AA114" s="274"/>
+      <c r="AB114" s="274"/>
+      <c r="AC114" s="274"/>
+      <c r="AD114" s="274"/>
+      <c r="AE114" s="274"/>
+      <c r="AF114" s="274"/>
+      <c r="AG114" s="274"/>
+      <c r="AH114" s="275"/>
     </row>
     <row r="117" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
       <c r="E117" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
@@ -14706,85 +14658,85 @@
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
       <c r="E119" s="42"/>
-      <c r="F119" s="343" t="s">
+      <c r="F119" s="289" t="s">
+        <v>102</v>
+      </c>
+      <c r="G119" s="291" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" s="291"/>
+      <c r="I119" s="291"/>
+      <c r="J119" s="291"/>
+      <c r="K119" s="291" t="s">
         <v>104</v>
       </c>
-      <c r="G119" s="345" t="s">
-        <v>105</v>
-      </c>
-      <c r="H119" s="345"/>
-      <c r="I119" s="345"/>
-      <c r="J119" s="345"/>
-      <c r="K119" s="345" t="s">
-        <v>106</v>
-      </c>
-      <c r="L119" s="345"/>
-      <c r="M119" s="345"/>
-      <c r="N119" s="345"/>
-      <c r="O119" s="323" t="s">
+      <c r="L119" s="291"/>
+      <c r="M119" s="291"/>
+      <c r="N119" s="291"/>
+      <c r="O119" s="292" t="s">
         <v>23</v>
       </c>
-      <c r="P119" s="323"/>
-      <c r="Q119" s="323"/>
-      <c r="R119" s="323"/>
-      <c r="S119" s="323"/>
-      <c r="T119" s="323"/>
-      <c r="U119" s="323"/>
-      <c r="V119" s="323"/>
-      <c r="W119" s="323"/>
-      <c r="X119" s="346" t="s">
+      <c r="P119" s="292"/>
+      <c r="Q119" s="292"/>
+      <c r="R119" s="292"/>
+      <c r="S119" s="292"/>
+      <c r="T119" s="292"/>
+      <c r="U119" s="292"/>
+      <c r="V119" s="292"/>
+      <c r="W119" s="292"/>
+      <c r="X119" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="Y119" s="347"/>
-      <c r="Z119" s="347"/>
-      <c r="AA119" s="347"/>
-      <c r="AB119" s="347"/>
-      <c r="AC119" s="347"/>
-      <c r="AD119" s="348"/>
-      <c r="AE119" s="346" t="s">
+      <c r="Y119" s="294"/>
+      <c r="Z119" s="294"/>
+      <c r="AA119" s="294"/>
+      <c r="AB119" s="294"/>
+      <c r="AC119" s="294"/>
+      <c r="AD119" s="295"/>
+      <c r="AE119" s="293" t="s">
         <v>22</v>
       </c>
-      <c r="AF119" s="352"/>
-      <c r="AG119" s="352"/>
-      <c r="AH119" s="353"/>
+      <c r="AF119" s="299"/>
+      <c r="AG119" s="299"/>
+      <c r="AH119" s="300"/>
     </row>
     <row r="120" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C120" s="21"/>
       <c r="D120" s="21"/>
       <c r="E120" s="42"/>
-      <c r="F120" s="344"/>
-      <c r="G120" s="345"/>
-      <c r="H120" s="345"/>
-      <c r="I120" s="345"/>
-      <c r="J120" s="345"/>
-      <c r="K120" s="345"/>
-      <c r="L120" s="345"/>
-      <c r="M120" s="345"/>
-      <c r="N120" s="345"/>
-      <c r="O120" s="319" t="s">
-        <v>107</v>
-      </c>
-      <c r="P120" s="323"/>
-      <c r="Q120" s="323"/>
-      <c r="R120" s="323"/>
-      <c r="S120" s="323"/>
-      <c r="T120" s="354" t="s">
+      <c r="F120" s="290"/>
+      <c r="G120" s="291"/>
+      <c r="H120" s="291"/>
+      <c r="I120" s="291"/>
+      <c r="J120" s="291"/>
+      <c r="K120" s="291"/>
+      <c r="L120" s="291"/>
+      <c r="M120" s="291"/>
+      <c r="N120" s="291"/>
+      <c r="O120" s="304" t="s">
+        <v>105</v>
+      </c>
+      <c r="P120" s="292"/>
+      <c r="Q120" s="292"/>
+      <c r="R120" s="292"/>
+      <c r="S120" s="292"/>
+      <c r="T120" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="U120" s="354"/>
-      <c r="V120" s="354"/>
-      <c r="W120" s="354"/>
-      <c r="X120" s="349"/>
-      <c r="Y120" s="350"/>
-      <c r="Z120" s="350"/>
-      <c r="AA120" s="350"/>
-      <c r="AB120" s="350"/>
-      <c r="AC120" s="350"/>
-      <c r="AD120" s="351"/>
-      <c r="AE120" s="328"/>
-      <c r="AF120" s="329"/>
-      <c r="AG120" s="329"/>
-      <c r="AH120" s="330"/>
+      <c r="U120" s="305"/>
+      <c r="V120" s="305"/>
+      <c r="W120" s="305"/>
+      <c r="X120" s="296"/>
+      <c r="Y120" s="297"/>
+      <c r="Z120" s="297"/>
+      <c r="AA120" s="297"/>
+      <c r="AB120" s="297"/>
+      <c r="AC120" s="297"/>
+      <c r="AD120" s="298"/>
+      <c r="AE120" s="301"/>
+      <c r="AF120" s="302"/>
+      <c r="AG120" s="302"/>
+      <c r="AH120" s="303"/>
     </row>
     <row r="121" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C121" s="21"/>
@@ -14793,34 +14745,34 @@
       <c r="F121" s="126">
         <v>1</v>
       </c>
-      <c r="G121" s="355"/>
-      <c r="H121" s="355"/>
-      <c r="I121" s="355"/>
-      <c r="J121" s="355"/>
-      <c r="K121" s="355"/>
-      <c r="L121" s="355"/>
-      <c r="M121" s="355"/>
-      <c r="N121" s="355"/>
-      <c r="O121" s="356"/>
-      <c r="P121" s="338"/>
-      <c r="Q121" s="338"/>
-      <c r="R121" s="338"/>
-      <c r="S121" s="338"/>
-      <c r="T121" s="357"/>
-      <c r="U121" s="321"/>
-      <c r="V121" s="321"/>
-      <c r="W121" s="321"/>
-      <c r="X121" s="291"/>
-      <c r="Y121" s="292"/>
-      <c r="Z121" s="292"/>
-      <c r="AA121" s="292"/>
-      <c r="AB121" s="292"/>
-      <c r="AC121" s="292"/>
-      <c r="AD121" s="293"/>
-      <c r="AE121" s="291"/>
-      <c r="AF121" s="341"/>
-      <c r="AG121" s="341"/>
-      <c r="AH121" s="342"/>
+      <c r="G121" s="279"/>
+      <c r="H121" s="279"/>
+      <c r="I121" s="279"/>
+      <c r="J121" s="279"/>
+      <c r="K121" s="279"/>
+      <c r="L121" s="279"/>
+      <c r="M121" s="279"/>
+      <c r="N121" s="279"/>
+      <c r="O121" s="280"/>
+      <c r="P121" s="281"/>
+      <c r="Q121" s="281"/>
+      <c r="R121" s="281"/>
+      <c r="S121" s="281"/>
+      <c r="T121" s="282"/>
+      <c r="U121" s="283"/>
+      <c r="V121" s="283"/>
+      <c r="W121" s="283"/>
+      <c r="X121" s="284"/>
+      <c r="Y121" s="285"/>
+      <c r="Z121" s="285"/>
+      <c r="AA121" s="285"/>
+      <c r="AB121" s="285"/>
+      <c r="AC121" s="285"/>
+      <c r="AD121" s="286"/>
+      <c r="AE121" s="284"/>
+      <c r="AF121" s="287"/>
+      <c r="AG121" s="287"/>
+      <c r="AH121" s="288"/>
     </row>
     <row r="122" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C122" s="21"/>
@@ -14829,34 +14781,34 @@
       <c r="F122" s="126">
         <v>2</v>
       </c>
-      <c r="G122" s="355"/>
-      <c r="H122" s="355"/>
-      <c r="I122" s="355"/>
-      <c r="J122" s="355"/>
-      <c r="K122" s="355"/>
-      <c r="L122" s="355"/>
-      <c r="M122" s="355"/>
-      <c r="N122" s="355"/>
-      <c r="O122" s="356"/>
-      <c r="P122" s="338"/>
-      <c r="Q122" s="338"/>
-      <c r="R122" s="338"/>
-      <c r="S122" s="338"/>
-      <c r="T122" s="357"/>
-      <c r="U122" s="321"/>
-      <c r="V122" s="321"/>
-      <c r="W122" s="321"/>
-      <c r="X122" s="291"/>
-      <c r="Y122" s="292"/>
-      <c r="Z122" s="292"/>
-      <c r="AA122" s="292"/>
-      <c r="AB122" s="292"/>
-      <c r="AC122" s="292"/>
-      <c r="AD122" s="293"/>
-      <c r="AE122" s="291"/>
-      <c r="AF122" s="341"/>
-      <c r="AG122" s="341"/>
-      <c r="AH122" s="342"/>
+      <c r="G122" s="279"/>
+      <c r="H122" s="279"/>
+      <c r="I122" s="279"/>
+      <c r="J122" s="279"/>
+      <c r="K122" s="279"/>
+      <c r="L122" s="279"/>
+      <c r="M122" s="279"/>
+      <c r="N122" s="279"/>
+      <c r="O122" s="280"/>
+      <c r="P122" s="281"/>
+      <c r="Q122" s="281"/>
+      <c r="R122" s="281"/>
+      <c r="S122" s="281"/>
+      <c r="T122" s="282"/>
+      <c r="U122" s="283"/>
+      <c r="V122" s="283"/>
+      <c r="W122" s="283"/>
+      <c r="X122" s="284"/>
+      <c r="Y122" s="285"/>
+      <c r="Z122" s="285"/>
+      <c r="AA122" s="285"/>
+      <c r="AB122" s="285"/>
+      <c r="AC122" s="285"/>
+      <c r="AD122" s="286"/>
+      <c r="AE122" s="284"/>
+      <c r="AF122" s="287"/>
+      <c r="AG122" s="287"/>
+      <c r="AH122" s="288"/>
     </row>
     <row r="123" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C123" s="21"/>
@@ -14865,34 +14817,34 @@
       <c r="F123" s="126">
         <v>3</v>
       </c>
-      <c r="G123" s="355"/>
-      <c r="H123" s="355"/>
-      <c r="I123" s="355"/>
-      <c r="J123" s="355"/>
-      <c r="K123" s="355"/>
-      <c r="L123" s="355"/>
-      <c r="M123" s="355"/>
-      <c r="N123" s="355"/>
-      <c r="O123" s="356"/>
-      <c r="P123" s="338"/>
-      <c r="Q123" s="338"/>
-      <c r="R123" s="338"/>
-      <c r="S123" s="338"/>
-      <c r="T123" s="357"/>
-      <c r="U123" s="321"/>
-      <c r="V123" s="321"/>
-      <c r="W123" s="321"/>
-      <c r="X123" s="291"/>
-      <c r="Y123" s="292"/>
-      <c r="Z123" s="292"/>
-      <c r="AA123" s="292"/>
-      <c r="AB123" s="292"/>
-      <c r="AC123" s="292"/>
-      <c r="AD123" s="293"/>
-      <c r="AE123" s="291"/>
-      <c r="AF123" s="341"/>
-      <c r="AG123" s="341"/>
-      <c r="AH123" s="342"/>
+      <c r="G123" s="279"/>
+      <c r="H123" s="279"/>
+      <c r="I123" s="279"/>
+      <c r="J123" s="279"/>
+      <c r="K123" s="279"/>
+      <c r="L123" s="279"/>
+      <c r="M123" s="279"/>
+      <c r="N123" s="279"/>
+      <c r="O123" s="280"/>
+      <c r="P123" s="281"/>
+      <c r="Q123" s="281"/>
+      <c r="R123" s="281"/>
+      <c r="S123" s="281"/>
+      <c r="T123" s="282"/>
+      <c r="U123" s="283"/>
+      <c r="V123" s="283"/>
+      <c r="W123" s="283"/>
+      <c r="X123" s="284"/>
+      <c r="Y123" s="285"/>
+      <c r="Z123" s="285"/>
+      <c r="AA123" s="285"/>
+      <c r="AB123" s="285"/>
+      <c r="AC123" s="285"/>
+      <c r="AD123" s="286"/>
+      <c r="AE123" s="284"/>
+      <c r="AF123" s="287"/>
+      <c r="AG123" s="287"/>
+      <c r="AH123" s="288"/>
     </row>
     <row r="124" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C124" s="21"/>
@@ -14929,28 +14881,134 @@
       <c r="AH124" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="180">
-    <mergeCell ref="I114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:AH114"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="K123:N123"/>
-    <mergeCell ref="O123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="X123:AD123"/>
-    <mergeCell ref="AE123:AH123"/>
-    <mergeCell ref="G121:J121"/>
-    <mergeCell ref="K121:N121"/>
-    <mergeCell ref="O121:S121"/>
-    <mergeCell ref="T121:W121"/>
-    <mergeCell ref="X121:AD121"/>
-    <mergeCell ref="AE121:AH121"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="K122:N122"/>
-    <mergeCell ref="O122:S122"/>
-    <mergeCell ref="T122:W122"/>
-    <mergeCell ref="X122:AD122"/>
-    <mergeCell ref="AE122:AH122"/>
+  <mergeCells count="172">
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="I8:AH8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:AH9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AH17"/>
+    <mergeCell ref="AK17:AP17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AH18"/>
+    <mergeCell ref="AK18:AP18"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AH15"/>
+    <mergeCell ref="AK15:AP15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AH16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="K24:AH24"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:J32"/>
+    <mergeCell ref="K31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="V31:AH32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K25:AH25"/>
+    <mergeCell ref="K26:AH26"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:AH35"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="K41:AH41"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AH33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:AH34"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:P45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="L46:P46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="E42:AH42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:K44"/>
+    <mergeCell ref="L43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:J92"/>
+    <mergeCell ref="K91:U91"/>
+    <mergeCell ref="V91:AC92"/>
+    <mergeCell ref="AD91:AH92"/>
+    <mergeCell ref="K92:P92"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:AG55"/>
+    <mergeCell ref="F93:J93"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="V93:AC93"/>
+    <mergeCell ref="AD93:AH93"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="K94:P94"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="V94:AC94"/>
+    <mergeCell ref="AD94:AH94"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:J102"/>
+    <mergeCell ref="K101:U101"/>
+    <mergeCell ref="V101:AC102"/>
+    <mergeCell ref="AD101:AH102"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="Q102:U102"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="K95:P95"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="V95:AC95"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="K100:AH100"/>
     <mergeCell ref="F119:F120"/>
     <mergeCell ref="G119:J120"/>
     <mergeCell ref="K119:N120"/>
@@ -14975,141 +15033,27 @@
     <mergeCell ref="V105:AC105"/>
     <mergeCell ref="AD105:AH105"/>
     <mergeCell ref="F114:H114"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:J102"/>
-    <mergeCell ref="K101:U101"/>
-    <mergeCell ref="V101:AC102"/>
-    <mergeCell ref="AD101:AH102"/>
-    <mergeCell ref="K102:P102"/>
-    <mergeCell ref="Q102:U102"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="K95:P95"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="V95:AC95"/>
-    <mergeCell ref="AD95:AH95"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="K100:AH100"/>
-    <mergeCell ref="F93:J93"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="V93:AC93"/>
-    <mergeCell ref="AD93:AH93"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="K94:P94"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="V94:AC94"/>
-    <mergeCell ref="AD94:AH94"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:J92"/>
-    <mergeCell ref="K91:U91"/>
-    <mergeCell ref="V91:AC92"/>
-    <mergeCell ref="AD91:AH92"/>
-    <mergeCell ref="K92:P92"/>
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:AG55"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:P45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="L46:P46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="E42:AH42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:K44"/>
-    <mergeCell ref="L43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:AH35"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="K41:AH41"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AH33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:AH34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:J32"/>
-    <mergeCell ref="K31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="V31:AH32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:Y25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Y26"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:Y23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:Y24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AH17"/>
-    <mergeCell ref="AK17:AP17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AH18"/>
-    <mergeCell ref="AK18:AP18"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AH15"/>
-    <mergeCell ref="AK15:AP15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AH16"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:AH9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="I114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:AH114"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="K123:N123"/>
+    <mergeCell ref="O123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="X123:AD123"/>
+    <mergeCell ref="AE123:AH123"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="K121:N121"/>
+    <mergeCell ref="O121:S121"/>
+    <mergeCell ref="T121:W121"/>
+    <mergeCell ref="X121:AD121"/>
+    <mergeCell ref="AE121:AH121"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="K122:N122"/>
+    <mergeCell ref="O122:S122"/>
+    <mergeCell ref="T122:W122"/>
+    <mergeCell ref="X122:AD122"/>
+    <mergeCell ref="AE122:AH122"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations disablePrompts="1" count="4">
@@ -15157,37 +15101,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="106" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
